--- a/data/mapping_1sem.xlsx
+++ b/data/mapping_1sem.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\host.lan\Data\files\tasks\d6a190d7-cf9b-49c6-a01d-c98c88642687\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Work\work-script\dmc-finder-project\dmc finder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EF026D-B38F-4585-9366-5D3EEFDCDBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD4E34-BF70-49EA-ACA4-D8D7F64C6F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1ST YEAR ROLL NO." sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="13">
   <si>
     <t>Roll No.</t>
   </si>
@@ -58,9 +46,6 @@
     <t>BPS SFS 1st Sem</t>
   </si>
   <si>
-    <t>�1250114109</t>
-  </si>
-  <si>
     <t>BPS Aided 1st Sem</t>
   </si>
   <si>
@@ -79,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -224,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -265,19 +250,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -559,17 +541,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="L459" sqref="L459"/>
+    <sheetView tabSelected="1" topLeftCell="A1121" workbookViewId="0">
+      <selection activeCell="G1138" sqref="G1138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9813,7 +9795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="841" spans="1:3" ht="15.75" thickBot="1">
+    <row r="841" spans="1:3" ht="15" thickBot="1">
       <c r="A841" s="8">
         <v>1250121143</v>
       </c>
@@ -9846,7 +9828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="15.75" thickBot="1">
+    <row r="844" spans="1:3" ht="15" thickBot="1">
       <c r="A844" s="13">
         <v>1250107003</v>
       </c>
@@ -9879,7 +9861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="847" spans="1:3" ht="15.75" thickBot="1">
+    <row r="847" spans="1:3" ht="15" thickBot="1">
       <c r="A847" s="13">
         <v>1250107006</v>
       </c>
@@ -9912,7 +9894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="850" spans="1:3" ht="15.75" thickBot="1">
+    <row r="850" spans="1:3" ht="15" thickBot="1">
       <c r="A850" s="13">
         <v>1250107009</v>
       </c>
@@ -9945,7 +9927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="853" spans="1:3" ht="15.75" thickBot="1">
+    <row r="853" spans="1:3" ht="15" thickBot="1">
       <c r="A853" s="13">
         <v>1250107012</v>
       </c>
@@ -9978,7 +9960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="856" spans="1:3" ht="15.75" thickBot="1">
+    <row r="856" spans="1:3" ht="15" thickBot="1">
       <c r="A856" s="13">
         <v>1250107015</v>
       </c>
@@ -10011,7 +9993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="859" spans="1:3" ht="15.75" thickBot="1">
+    <row r="859" spans="1:3" ht="15" thickBot="1">
       <c r="A859" s="13">
         <v>1250107018</v>
       </c>
@@ -10044,7 +10026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="15.75" thickBot="1">
+    <row r="862" spans="1:3" ht="15" thickBot="1">
       <c r="A862" s="13">
         <v>1250107021</v>
       </c>
@@ -10077,7 +10059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="865" spans="1:3" ht="15.75" thickBot="1">
+    <row r="865" spans="1:3" ht="15" thickBot="1">
       <c r="A865" s="13">
         <v>1250107026</v>
       </c>
@@ -10110,7 +10092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="868" spans="1:3" ht="15.75" thickBot="1">
+    <row r="868" spans="1:3" ht="15" thickBot="1">
       <c r="A868" s="13">
         <v>1250107029</v>
       </c>
@@ -10143,7 +10125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="871" spans="1:3" ht="15.75" thickBot="1">
+    <row r="871" spans="1:3" ht="15" thickBot="1">
       <c r="A871" s="13">
         <v>1250107032</v>
       </c>
@@ -10176,7 +10158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="874" spans="1:3" ht="15.75" thickBot="1">
+    <row r="874" spans="1:3" ht="15" thickBot="1">
       <c r="A874" s="13">
         <v>1250107035</v>
       </c>
@@ -10209,7 +10191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="877" spans="1:3" ht="15.75" thickBot="1">
+    <row r="877" spans="1:3" ht="15" thickBot="1">
       <c r="A877" s="13">
         <v>1250107038</v>
       </c>
@@ -10242,7 +10224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="880" spans="1:3" ht="15.75" thickBot="1">
+    <row r="880" spans="1:3" ht="15" thickBot="1">
       <c r="A880" s="13">
         <v>1250107041</v>
       </c>
@@ -10275,7 +10257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="15.75" thickBot="1">
+    <row r="883" spans="1:3" ht="15" thickBot="1">
       <c r="A883" s="13">
         <v>1250107045</v>
       </c>
@@ -10308,7 +10290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="15.75" thickBot="1">
+    <row r="886" spans="1:3" ht="15" thickBot="1">
       <c r="A886" s="13">
         <v>1250107049</v>
       </c>
@@ -10341,7 +10323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="889" spans="1:3" ht="15.75" thickBot="1">
+    <row r="889" spans="1:3" ht="15" thickBot="1">
       <c r="A889" s="13">
         <v>1250107052</v>
       </c>
@@ -10374,7 +10356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="15.75" thickBot="1">
+    <row r="892" spans="1:3" ht="15" thickBot="1">
       <c r="A892" s="13">
         <v>1250107057</v>
       </c>
@@ -10407,7 +10389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="15.75" thickBot="1">
+    <row r="895" spans="1:3" ht="15" thickBot="1">
       <c r="A895" s="13">
         <v>1250107060</v>
       </c>
@@ -10440,7 +10422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="15.75" thickBot="1">
+    <row r="898" spans="1:3" ht="15" thickBot="1">
       <c r="A898" s="13">
         <v>1250107063</v>
       </c>
@@ -10473,7 +10455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="15.75" thickBot="1">
+    <row r="901" spans="1:3" ht="15" thickBot="1">
       <c r="A901" s="13">
         <v>1250107066</v>
       </c>
@@ -10506,7 +10488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="15.75" thickBot="1">
+    <row r="904" spans="1:3" ht="15" thickBot="1">
       <c r="A904" s="13">
         <v>1250107069</v>
       </c>
@@ -10539,7 +10521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="15.75" thickBot="1">
+    <row r="907" spans="1:3" ht="15" thickBot="1">
       <c r="A907" s="13">
         <v>1250107072</v>
       </c>
@@ -10572,7 +10554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="15.75" thickBot="1">
+    <row r="910" spans="1:3" ht="15" thickBot="1">
       <c r="A910" s="13">
         <v>1250107076</v>
       </c>
@@ -10605,7 +10587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="15.75" thickBot="1">
+    <row r="913" spans="1:3" ht="15" thickBot="1">
       <c r="A913" s="13">
         <v>1250107081</v>
       </c>
@@ -10638,7 +10620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="15.75" thickBot="1">
+    <row r="916" spans="1:3" ht="15" thickBot="1">
       <c r="A916" s="13">
         <v>1250107084</v>
       </c>
@@ -10671,7 +10653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="15.75" thickBot="1">
+    <row r="919" spans="1:3" ht="15" thickBot="1">
       <c r="A919" s="13">
         <v>1250107088</v>
       </c>
@@ -12087,7 +12069,7 @@
         <v>2025055106</v>
       </c>
       <c r="C1047" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
@@ -12098,7 +12080,7 @@
         <v>2025055160</v>
       </c>
       <c r="C1048" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
@@ -12109,7 +12091,7 @@
         <v>2025055144</v>
       </c>
       <c r="C1049" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
@@ -12120,7 +12102,7 @@
         <v>2025055162</v>
       </c>
       <c r="C1050" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -12131,7 +12113,7 @@
         <v>2025055165</v>
       </c>
       <c r="C1051" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
@@ -12142,7 +12124,7 @@
         <v>2025055152</v>
       </c>
       <c r="C1052" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1053" spans="1:3">
@@ -12153,7 +12135,7 @@
         <v>2025055183</v>
       </c>
       <c r="C1053" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
@@ -12164,7 +12146,7 @@
         <v>2025055123</v>
       </c>
       <c r="C1054" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
@@ -12175,7 +12157,7 @@
         <v>2025055114</v>
       </c>
       <c r="C1055" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -12186,7 +12168,7 @@
         <v>2025055110</v>
       </c>
       <c r="C1056" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
@@ -12197,7 +12179,7 @@
         <v>2025055189</v>
       </c>
       <c r="C1057" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12208,7 +12190,7 @@
         <v>2025055157</v>
       </c>
       <c r="C1058" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1059" spans="1:3">
@@ -12219,7 +12201,7 @@
         <v>2025055179</v>
       </c>
       <c r="C1059" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
@@ -12230,7 +12212,7 @@
         <v>2025055184</v>
       </c>
       <c r="C1060" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1061" spans="1:3">
@@ -12241,7 +12223,7 @@
         <v>2025055163</v>
       </c>
       <c r="C1061" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -12252,7 +12234,7 @@
         <v>2025055135</v>
       </c>
       <c r="C1062" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1063" spans="1:3">
@@ -12263,7 +12245,7 @@
         <v>2025055109</v>
       </c>
       <c r="C1063" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12274,7 +12256,7 @@
         <v>2025055127</v>
       </c>
       <c r="C1064" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
@@ -12285,7 +12267,7 @@
         <v>2025055188</v>
       </c>
       <c r="C1065" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1066" spans="1:3">
@@ -12296,7 +12278,7 @@
         <v>2025055180</v>
       </c>
       <c r="C1066" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1067" spans="1:3">
@@ -12307,7 +12289,7 @@
         <v>2025055116</v>
       </c>
       <c r="C1067" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
@@ -12318,7 +12300,7 @@
         <v>2025055164</v>
       </c>
       <c r="C1068" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1069" spans="1:3">
@@ -12329,7 +12311,7 @@
         <v>2025055187</v>
       </c>
       <c r="C1069" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
@@ -12340,7 +12322,7 @@
         <v>2025055149</v>
       </c>
       <c r="C1070" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
@@ -12351,7 +12333,7 @@
         <v>2025055168</v>
       </c>
       <c r="C1071" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1072" spans="1:3">
@@ -12362,7 +12344,7 @@
         <v>2025055103</v>
       </c>
       <c r="C1072" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1073" spans="1:3">
@@ -12373,7 +12355,7 @@
         <v>2025055148</v>
       </c>
       <c r="C1073" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
@@ -12384,7 +12366,7 @@
         <v>2025055119</v>
       </c>
       <c r="C1074" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
@@ -12395,7 +12377,7 @@
         <v>2025055118</v>
       </c>
       <c r="C1075" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1076" spans="1:3">
@@ -12406,7 +12388,7 @@
         <v>2025055171</v>
       </c>
       <c r="C1076" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1077" spans="1:3">
@@ -12417,7 +12399,7 @@
         <v>2025055170</v>
       </c>
       <c r="C1077" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1078" spans="1:3">
@@ -12428,7 +12410,7 @@
         <v>2025055182</v>
       </c>
       <c r="C1078" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1079" spans="1:3">
@@ -12439,7 +12421,7 @@
         <v>2025055120</v>
       </c>
       <c r="C1079" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1080" spans="1:3">
@@ -12450,7 +12432,7 @@
         <v>2025055129</v>
       </c>
       <c r="C1080" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
@@ -12461,7 +12443,7 @@
         <v>2025055185</v>
       </c>
       <c r="C1081" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1082" spans="1:3">
@@ -12472,7 +12454,7 @@
         <v>2025055104</v>
       </c>
       <c r="C1082" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
@@ -12483,7 +12465,7 @@
         <v>2025055117</v>
       </c>
       <c r="C1083" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1084" spans="1:3">
@@ -12494,7 +12476,7 @@
         <v>2025055139</v>
       </c>
       <c r="C1084" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
@@ -12505,7 +12487,7 @@
         <v>2025055169</v>
       </c>
       <c r="C1085" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12516,7 +12498,7 @@
         <v>2025055146</v>
       </c>
       <c r="C1086" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1087" spans="1:3">
@@ -12527,7 +12509,7 @@
         <v>2025055128</v>
       </c>
       <c r="C1087" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1088" spans="1:3">
@@ -12538,7 +12520,7 @@
         <v>2025055131</v>
       </c>
       <c r="C1088" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1089" spans="1:3">
@@ -12549,7 +12531,7 @@
         <v>2025055178</v>
       </c>
       <c r="C1089" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1090" spans="1:3">
@@ -12560,7 +12542,7 @@
         <v>2025055122</v>
       </c>
       <c r="C1090" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -12571,7 +12553,7 @@
         <v>2025055136</v>
       </c>
       <c r="C1091" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1092" spans="1:3">
@@ -12582,7 +12564,7 @@
         <v>2025055156</v>
       </c>
       <c r="C1092" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1093" spans="1:3">
@@ -12593,7 +12575,7 @@
         <v>2025055172</v>
       </c>
       <c r="C1093" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1094" spans="1:3">
@@ -12604,7 +12586,7 @@
         <v>2025055107</v>
       </c>
       <c r="C1094" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1095" spans="1:3">
@@ -12615,7 +12597,7 @@
         <v>2025055105</v>
       </c>
       <c r="C1095" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1096" spans="1:3">
@@ -12626,7 +12608,7 @@
         <v>2025055121</v>
       </c>
       <c r="C1096" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1097" spans="1:3">
@@ -12637,7 +12619,7 @@
         <v>2025055124</v>
       </c>
       <c r="C1097" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1098" spans="1:3">
@@ -12648,7 +12630,7 @@
         <v>2025055143</v>
       </c>
       <c r="C1098" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1099" spans="1:3">
@@ -12659,7 +12641,7 @@
         <v>2025055155</v>
       </c>
       <c r="C1099" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1100" spans="1:3">
@@ -12670,7 +12652,7 @@
         <v>2025055125</v>
       </c>
       <c r="C1100" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -12681,7 +12663,7 @@
         <v>2025055167</v>
       </c>
       <c r="C1101" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1102" spans="1:3">
@@ -12692,7 +12674,7 @@
         <v>2025055147</v>
       </c>
       <c r="C1102" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1103" spans="1:3">
@@ -12703,7 +12685,7 @@
         <v>2025055132</v>
       </c>
       <c r="C1103" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1104" spans="1:3">
@@ -12714,7 +12696,7 @@
         <v>2025055174</v>
       </c>
       <c r="C1104" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
@@ -12725,7 +12707,7 @@
         <v>2025055140</v>
       </c>
       <c r="C1105" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
@@ -12736,7 +12718,7 @@
         <v>2025055108</v>
       </c>
       <c r="C1106" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1107" spans="1:3">
@@ -12747,7 +12729,7 @@
         <v>2025055137</v>
       </c>
       <c r="C1107" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
@@ -12758,7 +12740,7 @@
         <v>2025055115</v>
       </c>
       <c r="C1108" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12769,7 +12751,7 @@
         <v>2025055130</v>
       </c>
       <c r="C1109" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
@@ -12780,7 +12762,7 @@
         <v>2025055133</v>
       </c>
       <c r="C1110" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
@@ -12791,7 +12773,7 @@
         <v>2025055151</v>
       </c>
       <c r="C1111" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1112" spans="1:3">
@@ -12802,7 +12784,7 @@
         <v>2025055175</v>
       </c>
       <c r="C1112" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
@@ -12813,7 +12795,7 @@
         <v>2025055126</v>
       </c>
       <c r="C1113" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
@@ -12824,7 +12806,7 @@
         <v>2025055177</v>
       </c>
       <c r="C1114" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1115" spans="1:3">
@@ -12835,7 +12817,7 @@
         <v>2025055153</v>
       </c>
       <c r="C1115" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
@@ -12846,7 +12828,7 @@
         <v>2025055154</v>
       </c>
       <c r="C1116" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12857,7 +12839,7 @@
         <v>2025055176</v>
       </c>
       <c r="C1117" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -12868,7 +12850,7 @@
         <v>2025055181</v>
       </c>
       <c r="C1118" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -12879,7 +12861,7 @@
         <v>2025055134</v>
       </c>
       <c r="C1119" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1120" spans="1:3">
@@ -12890,7 +12872,7 @@
         <v>2025055150</v>
       </c>
       <c r="C1120" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1121" spans="1:3">
@@ -12901,7 +12883,7 @@
         <v>2025055142</v>
       </c>
       <c r="C1121" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1122" spans="1:3">
@@ -12912,7 +12894,7 @@
         <v>2025055113</v>
       </c>
       <c r="C1122" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -12923,7 +12905,7 @@
         <v>2025055141</v>
       </c>
       <c r="C1123" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -12934,7 +12916,7 @@
         <v>2025055145</v>
       </c>
       <c r="C1124" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
@@ -12945,7 +12927,7 @@
         <v>2025055159</v>
       </c>
       <c r="C1125" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1126" spans="1:3">
@@ -12956,7 +12938,7 @@
         <v>2025055158</v>
       </c>
       <c r="C1126" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -12967,7 +12949,7 @@
         <v>2025055166</v>
       </c>
       <c r="C1127" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -12978,7 +12960,7 @@
         <v>2025055186</v>
       </c>
       <c r="C1128" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1129" spans="1:3">
@@ -12989,7 +12971,7 @@
         <v>2025055161</v>
       </c>
       <c r="C1129" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -13000,7 +12982,7 @@
         <v>2025055173</v>
       </c>
       <c r="C1130" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1131" spans="1:3">
@@ -13011,7 +12993,7 @@
         <v>2025055112</v>
       </c>
       <c r="C1131" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -13022,7 +13004,7 @@
         <v>2025055111</v>
       </c>
       <c r="C1132" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -13033,18 +13015,18 @@
         <v>2025055138</v>
       </c>
       <c r="C1133" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
-      <c r="A1134" s="15" t="s">
-        <v>8</v>
+      <c r="A1134" s="15">
+        <v>1250114109</v>
       </c>
       <c r="B1134" s="15">
         <v>2025055101</v>
       </c>
       <c r="C1134" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1135" spans="1:3">
@@ -13054,8 +13036,8 @@
       <c r="B1135" s="6">
         <v>2025094937</v>
       </c>
-      <c r="C1135" s="16" t="s">
-        <v>10</v>
+      <c r="C1135" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1136" spans="1:3">
@@ -13065,8 +13047,8 @@
       <c r="B1136" s="6">
         <v>2025094912</v>
       </c>
-      <c r="C1136" s="16" t="s">
-        <v>10</v>
+      <c r="C1136" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1137" spans="1:3">
@@ -13076,8 +13058,8 @@
       <c r="B1137" s="6">
         <v>2025094922</v>
       </c>
-      <c r="C1137" s="16" t="s">
-        <v>10</v>
+      <c r="C1137" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1138" spans="1:3">
@@ -13087,8 +13069,8 @@
       <c r="B1138" s="6">
         <v>2025094873</v>
       </c>
-      <c r="C1138" s="16" t="s">
-        <v>10</v>
+      <c r="C1138" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1139" spans="1:3">
@@ -13098,8 +13080,8 @@
       <c r="B1139" s="6">
         <v>2025094905</v>
       </c>
-      <c r="C1139" s="16" t="s">
-        <v>10</v>
+      <c r="C1139" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1140" spans="1:3">
@@ -13109,8 +13091,8 @@
       <c r="B1140" s="6">
         <v>2025094848</v>
       </c>
-      <c r="C1140" s="16" t="s">
-        <v>10</v>
+      <c r="C1140" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1141" spans="1:3">
@@ -13120,8 +13102,8 @@
       <c r="B1141" s="6">
         <v>2025094942</v>
       </c>
-      <c r="C1141" s="16" t="s">
-        <v>10</v>
+      <c r="C1141" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
@@ -13131,8 +13113,8 @@
       <c r="B1142" s="6">
         <v>2025094827</v>
       </c>
-      <c r="C1142" s="16" t="s">
-        <v>10</v>
+      <c r="C1142" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
@@ -13142,8 +13124,8 @@
       <c r="B1143" s="6">
         <v>2025094847</v>
       </c>
-      <c r="C1143" s="16" t="s">
-        <v>10</v>
+      <c r="C1143" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1144" spans="1:3">
@@ -13153,8 +13135,8 @@
       <c r="B1144" s="6">
         <v>2025094927</v>
       </c>
-      <c r="C1144" s="16" t="s">
-        <v>10</v>
+      <c r="C1144" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
@@ -13164,8 +13146,8 @@
       <c r="B1145" s="6">
         <v>2025094954</v>
       </c>
-      <c r="C1145" s="16" t="s">
-        <v>10</v>
+      <c r="C1145" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1146" spans="1:3">
@@ -13175,8 +13157,8 @@
       <c r="B1146" s="6">
         <v>2025094936</v>
       </c>
-      <c r="C1146" s="16" t="s">
-        <v>10</v>
+      <c r="C1146" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1147" spans="1:3">
@@ -13186,8 +13168,8 @@
       <c r="B1147" s="6">
         <v>2025094872</v>
       </c>
-      <c r="C1147" s="16" t="s">
-        <v>10</v>
+      <c r="C1147" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1148" spans="1:3">
@@ -13197,8 +13179,8 @@
       <c r="B1148" s="6">
         <v>2025094894</v>
       </c>
-      <c r="C1148" s="16" t="s">
-        <v>10</v>
+      <c r="C1148" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1149" spans="1:3">
@@ -13208,8 +13190,8 @@
       <c r="B1149" s="6">
         <v>2025094855</v>
       </c>
-      <c r="C1149" s="16" t="s">
-        <v>10</v>
+      <c r="C1149" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1150" spans="1:3">
@@ -13219,8 +13201,8 @@
       <c r="B1150" s="6">
         <v>2025094864</v>
       </c>
-      <c r="C1150" s="16" t="s">
-        <v>10</v>
+      <c r="C1150" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1151" spans="1:3">
@@ -13230,8 +13212,8 @@
       <c r="B1151" s="6">
         <v>2025094930</v>
       </c>
-      <c r="C1151" s="16" t="s">
-        <v>10</v>
+      <c r="C1151" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1152" spans="1:3">
@@ -13241,8 +13223,8 @@
       <c r="B1152" s="6">
         <v>2025094804</v>
       </c>
-      <c r="C1152" s="16" t="s">
-        <v>10</v>
+      <c r="C1152" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1153" spans="1:3">
@@ -13252,8 +13234,8 @@
       <c r="B1153" s="6">
         <v>2025094957</v>
       </c>
-      <c r="C1153" s="16" t="s">
-        <v>10</v>
+      <c r="C1153" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1154" spans="1:3">
@@ -13263,8 +13245,8 @@
       <c r="B1154" s="6">
         <v>2025094870</v>
       </c>
-      <c r="C1154" s="16" t="s">
-        <v>10</v>
+      <c r="C1154" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1155" spans="1:3">
@@ -13274,8 +13256,8 @@
       <c r="B1155" s="6">
         <v>2025094938</v>
       </c>
-      <c r="C1155" s="16" t="s">
-        <v>10</v>
+      <c r="C1155" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1156" spans="1:3">
@@ -13285,8 +13267,8 @@
       <c r="B1156" s="6">
         <v>2025094840</v>
       </c>
-      <c r="C1156" s="16" t="s">
-        <v>10</v>
+      <c r="C1156" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13296,8 +13278,8 @@
       <c r="B1157" s="6">
         <v>2025094837</v>
       </c>
-      <c r="C1157" s="16" t="s">
-        <v>10</v>
+      <c r="C1157" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1158" spans="1:3">
@@ -13307,8 +13289,8 @@
       <c r="B1158" s="6">
         <v>2025094850</v>
       </c>
-      <c r="C1158" s="16" t="s">
-        <v>10</v>
+      <c r="C1158" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1159" spans="1:3">
@@ -13318,8 +13300,8 @@
       <c r="B1159" s="6">
         <v>2025094886</v>
       </c>
-      <c r="C1159" s="16" t="s">
-        <v>10</v>
+      <c r="C1159" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1160" spans="1:3">
@@ -13329,8 +13311,8 @@
       <c r="B1160" s="6">
         <v>2025094814</v>
       </c>
-      <c r="C1160" s="16" t="s">
-        <v>10</v>
+      <c r="C1160" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1161" spans="1:3">
@@ -13340,8 +13322,8 @@
       <c r="B1161" s="6">
         <v>2025094893</v>
       </c>
-      <c r="C1161" s="16" t="s">
-        <v>10</v>
+      <c r="C1161" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
@@ -13351,8 +13333,8 @@
       <c r="B1162" s="6">
         <v>2025094928</v>
       </c>
-      <c r="C1162" s="16" t="s">
-        <v>10</v>
+      <c r="C1162" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1163" spans="1:3">
@@ -13362,8 +13344,8 @@
       <c r="B1163" s="6">
         <v>2025094945</v>
       </c>
-      <c r="C1163" s="16" t="s">
-        <v>10</v>
+      <c r="C1163" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1164" spans="1:3">
@@ -13373,8 +13355,8 @@
       <c r="B1164" s="6">
         <v>2025094844</v>
       </c>
-      <c r="C1164" s="16" t="s">
-        <v>10</v>
+      <c r="C1164" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
@@ -13384,8 +13366,8 @@
       <c r="B1165" s="6">
         <v>2025094818</v>
       </c>
-      <c r="C1165" s="16" t="s">
-        <v>10</v>
+      <c r="C1165" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
@@ -13395,8 +13377,8 @@
       <c r="B1166" s="6">
         <v>2025094839</v>
       </c>
-      <c r="C1166" s="16" t="s">
-        <v>10</v>
+      <c r="C1166" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
@@ -13406,8 +13388,8 @@
       <c r="B1167" s="6">
         <v>2025094817</v>
       </c>
-      <c r="C1167" s="16" t="s">
-        <v>10</v>
+      <c r="C1167" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
@@ -13417,8 +13399,8 @@
       <c r="B1168" s="6">
         <v>2025094852</v>
       </c>
-      <c r="C1168" s="16" t="s">
-        <v>10</v>
+      <c r="C1168" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
@@ -13428,8 +13410,8 @@
       <c r="B1169" s="6">
         <v>2025094943</v>
       </c>
-      <c r="C1169" s="16" t="s">
-        <v>10</v>
+      <c r="C1169" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1170" spans="1:3">
@@ -13439,8 +13421,8 @@
       <c r="B1170" s="6">
         <v>2025094915</v>
       </c>
-      <c r="C1170" s="16" t="s">
-        <v>10</v>
+      <c r="C1170" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
@@ -13450,8 +13432,8 @@
       <c r="B1171" s="6">
         <v>2025094842</v>
       </c>
-      <c r="C1171" s="16" t="s">
-        <v>10</v>
+      <c r="C1171" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
@@ -13461,8 +13443,8 @@
       <c r="B1172" s="6">
         <v>2025094929</v>
       </c>
-      <c r="C1172" s="16" t="s">
-        <v>10</v>
+      <c r="C1172" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1173" spans="1:3">
@@ -13472,8 +13454,8 @@
       <c r="B1173" s="6">
         <v>2025094888</v>
       </c>
-      <c r="C1173" s="16" t="s">
-        <v>10</v>
+      <c r="C1173" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
@@ -13483,8 +13465,8 @@
       <c r="B1174" s="6">
         <v>2025094907</v>
       </c>
-      <c r="C1174" s="16" t="s">
-        <v>10</v>
+      <c r="C1174" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1175" spans="1:3">
@@ -13494,8 +13476,8 @@
       <c r="B1175" s="6">
         <v>2025094935</v>
       </c>
-      <c r="C1175" s="16" t="s">
-        <v>10</v>
+      <c r="C1175" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
@@ -13505,8 +13487,8 @@
       <c r="B1176" s="6">
         <v>2025094865</v>
       </c>
-      <c r="C1176" s="16" t="s">
-        <v>10</v>
+      <c r="C1176" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
@@ -13516,8 +13498,8 @@
       <c r="B1177" s="6">
         <v>2025094899</v>
       </c>
-      <c r="C1177" s="16" t="s">
-        <v>10</v>
+      <c r="C1177" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1178" spans="1:3">
@@ -13527,8 +13509,8 @@
       <c r="B1178" s="6">
         <v>2025094853</v>
       </c>
-      <c r="C1178" s="16" t="s">
-        <v>10</v>
+      <c r="C1178" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1179" spans="1:3">
@@ -13538,8 +13520,8 @@
       <c r="B1179" s="6">
         <v>2025094849</v>
       </c>
-      <c r="C1179" s="16" t="s">
-        <v>10</v>
+      <c r="C1179" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1180" spans="1:3">
@@ -13549,8 +13531,8 @@
       <c r="B1180" s="6">
         <v>2025094901</v>
       </c>
-      <c r="C1180" s="16" t="s">
-        <v>10</v>
+      <c r="C1180" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1181" spans="1:3">
@@ -13560,8 +13542,8 @@
       <c r="B1181" s="6">
         <v>2025094821</v>
       </c>
-      <c r="C1181" s="16" t="s">
-        <v>10</v>
+      <c r="C1181" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
@@ -13571,8 +13553,8 @@
       <c r="B1182" s="6">
         <v>2025094958</v>
       </c>
-      <c r="C1182" s="16" t="s">
-        <v>10</v>
+      <c r="C1182" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
@@ -13582,8 +13564,8 @@
       <c r="B1183" s="6">
         <v>2025094819</v>
       </c>
-      <c r="C1183" s="16" t="s">
-        <v>10</v>
+      <c r="C1183" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
@@ -13593,8 +13575,8 @@
       <c r="B1184" s="6">
         <v>2025094924</v>
       </c>
-      <c r="C1184" s="16" t="s">
-        <v>10</v>
+      <c r="C1184" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
@@ -13604,8 +13586,8 @@
       <c r="B1185" s="6">
         <v>2025094925</v>
       </c>
-      <c r="C1185" s="16" t="s">
-        <v>10</v>
+      <c r="C1185" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
@@ -13615,8 +13597,8 @@
       <c r="B1186" s="6">
         <v>2025094881</v>
       </c>
-      <c r="C1186" s="16" t="s">
-        <v>10</v>
+      <c r="C1186" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1187" spans="1:3">
@@ -13626,8 +13608,8 @@
       <c r="B1187" s="6">
         <v>2025094920</v>
       </c>
-      <c r="C1187" s="16" t="s">
-        <v>10</v>
+      <c r="C1187" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
@@ -13637,8 +13619,8 @@
       <c r="B1188" s="6">
         <v>2025094866</v>
       </c>
-      <c r="C1188" s="16" t="s">
-        <v>10</v>
+      <c r="C1188" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
@@ -13648,8 +13630,8 @@
       <c r="B1189" s="6">
         <v>2025094878</v>
       </c>
-      <c r="C1189" s="16" t="s">
-        <v>10</v>
+      <c r="C1189" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1190" spans="1:3">
@@ -13659,8 +13641,8 @@
       <c r="B1190" s="6">
         <v>2025094956</v>
       </c>
-      <c r="C1190" s="16" t="s">
-        <v>10</v>
+      <c r="C1190" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1191" spans="1:3">
@@ -13670,8 +13652,8 @@
       <c r="B1191" s="6">
         <v>2025094809</v>
       </c>
-      <c r="C1191" s="16" t="s">
-        <v>10</v>
+      <c r="C1191" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -13681,8 +13663,8 @@
       <c r="B1192" s="6">
         <v>2025094856</v>
       </c>
-      <c r="C1192" s="16" t="s">
-        <v>10</v>
+      <c r="C1192" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1193" spans="1:3">
@@ -13692,8 +13674,8 @@
       <c r="B1193" s="6">
         <v>2025094860</v>
       </c>
-      <c r="C1193" s="16" t="s">
-        <v>10</v>
+      <c r="C1193" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -13703,8 +13685,8 @@
       <c r="B1194" s="6">
         <v>2025094904</v>
       </c>
-      <c r="C1194" s="16" t="s">
-        <v>10</v>
+      <c r="C1194" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1195" spans="1:3">
@@ -13714,8 +13696,8 @@
       <c r="B1195" s="6">
         <v>2025094857</v>
       </c>
-      <c r="C1195" s="16" t="s">
-        <v>10</v>
+      <c r="C1195" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1196" spans="1:3">
@@ -13725,8 +13707,8 @@
       <c r="B1196" s="6">
         <v>2025094810</v>
       </c>
-      <c r="C1196" s="16" t="s">
-        <v>10</v>
+      <c r="C1196" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1197" spans="1:3">
@@ -13736,8 +13718,8 @@
       <c r="B1197" s="6">
         <v>2025094834</v>
       </c>
-      <c r="C1197" s="16" t="s">
-        <v>10</v>
+      <c r="C1197" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1198" spans="1:3">
@@ -13747,8 +13729,8 @@
       <c r="B1198" s="6">
         <v>2025094862</v>
       </c>
-      <c r="C1198" s="16" t="s">
-        <v>10</v>
+      <c r="C1198" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1199" spans="1:3">
@@ -13758,8 +13740,8 @@
       <c r="B1199" s="6">
         <v>2025094880</v>
       </c>
-      <c r="C1199" s="16" t="s">
-        <v>10</v>
+      <c r="C1199" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -13769,8 +13751,8 @@
       <c r="B1200" s="6">
         <v>2025094833</v>
       </c>
-      <c r="C1200" s="16" t="s">
-        <v>10</v>
+      <c r="C1200" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1201" spans="1:3">
@@ -13780,8 +13762,8 @@
       <c r="B1201" s="6">
         <v>2025094882</v>
       </c>
-      <c r="C1201" s="16" t="s">
-        <v>10</v>
+      <c r="C1201" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1202" spans="1:3">
@@ -13791,8 +13773,8 @@
       <c r="B1202" s="6">
         <v>2025094923</v>
       </c>
-      <c r="C1202" s="16" t="s">
-        <v>10</v>
+      <c r="C1202" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1203" spans="1:3">
@@ -13802,8 +13784,8 @@
       <c r="B1203" s="6">
         <v>2025094887</v>
       </c>
-      <c r="C1203" s="16" t="s">
-        <v>10</v>
+      <c r="C1203" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
@@ -13813,8 +13795,8 @@
       <c r="B1204" s="6">
         <v>2025094952</v>
       </c>
-      <c r="C1204" s="16" t="s">
-        <v>10</v>
+      <c r="C1204" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1205" spans="1:3">
@@ -13824,8 +13806,8 @@
       <c r="B1205" s="6">
         <v>2025094908</v>
       </c>
-      <c r="C1205" s="16" t="s">
-        <v>10</v>
+      <c r="C1205" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1206" spans="1:3">
@@ -13835,8 +13817,8 @@
       <c r="B1206" s="6">
         <v>2025094910</v>
       </c>
-      <c r="C1206" s="16" t="s">
-        <v>10</v>
+      <c r="C1206" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1207" spans="1:3">
@@ -13846,8 +13828,8 @@
       <c r="B1207" s="6">
         <v>2025094953</v>
       </c>
-      <c r="C1207" s="16" t="s">
-        <v>10</v>
+      <c r="C1207" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1208" spans="1:3">
@@ -13857,8 +13839,8 @@
       <c r="B1208" s="6">
         <v>2025094921</v>
       </c>
-      <c r="C1208" s="16" t="s">
-        <v>10</v>
+      <c r="C1208" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
@@ -13868,8 +13850,8 @@
       <c r="B1209" s="6">
         <v>2025094811</v>
       </c>
-      <c r="C1209" s="16" t="s">
-        <v>10</v>
+      <c r="C1209" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1210" spans="1:3">
@@ -13879,8 +13861,8 @@
       <c r="B1210" s="6">
         <v>2025094875</v>
       </c>
-      <c r="C1210" s="16" t="s">
-        <v>10</v>
+      <c r="C1210" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13890,8 +13872,8 @@
       <c r="B1211" s="6">
         <v>2025094884</v>
       </c>
-      <c r="C1211" s="16" t="s">
-        <v>10</v>
+      <c r="C1211" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
@@ -13901,8 +13883,8 @@
       <c r="B1212" s="6">
         <v>2025094815</v>
       </c>
-      <c r="C1212" s="16" t="s">
-        <v>10</v>
+      <c r="C1212" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -13912,8 +13894,8 @@
       <c r="B1213" s="6">
         <v>2025094948</v>
       </c>
-      <c r="C1213" s="16" t="s">
-        <v>10</v>
+      <c r="C1213" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -13923,8 +13905,8 @@
       <c r="B1214" s="6">
         <v>2025094949</v>
       </c>
-      <c r="C1214" s="16" t="s">
-        <v>10</v>
+      <c r="C1214" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13934,8 +13916,8 @@
       <c r="B1215" s="6">
         <v>2025094933</v>
       </c>
-      <c r="C1215" s="16" t="s">
-        <v>10</v>
+      <c r="C1215" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1216" spans="1:3">
@@ -13945,8 +13927,8 @@
       <c r="B1216" s="6">
         <v>2025094959</v>
       </c>
-      <c r="C1216" s="16" t="s">
-        <v>10</v>
+      <c r="C1216" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
@@ -13956,8 +13938,8 @@
       <c r="B1217" s="6">
         <v>2025094903</v>
       </c>
-      <c r="C1217" s="16" t="s">
-        <v>10</v>
+      <c r="C1217" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
@@ -13967,8 +13949,8 @@
       <c r="B1218" s="6">
         <v>2025094946</v>
       </c>
-      <c r="C1218" s="16" t="s">
-        <v>10</v>
+      <c r="C1218" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
@@ -13978,8 +13960,8 @@
       <c r="B1219" s="6">
         <v>2025094896</v>
       </c>
-      <c r="C1219" s="16" t="s">
-        <v>10</v>
+      <c r="C1219" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13989,8 +13971,8 @@
       <c r="B1220" s="6">
         <v>2025094955</v>
       </c>
-      <c r="C1220" s="16" t="s">
-        <v>10</v>
+      <c r="C1220" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1221" spans="1:3">
@@ -14000,8 +13982,8 @@
       <c r="B1221" s="6">
         <v>2025094897</v>
       </c>
-      <c r="C1221" s="16" t="s">
-        <v>10</v>
+      <c r="C1221" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1222" spans="1:3">
@@ -14011,8 +13993,8 @@
       <c r="B1222" s="6">
         <v>2025094812</v>
       </c>
-      <c r="C1222" s="16" t="s">
-        <v>10</v>
+      <c r="C1222" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1223" spans="1:3">
@@ -14022,8 +14004,8 @@
       <c r="B1223" s="6">
         <v>2025094918</v>
       </c>
-      <c r="C1223" s="16" t="s">
-        <v>10</v>
+      <c r="C1223" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1224" spans="1:3">
@@ -14033,8 +14015,8 @@
       <c r="B1224" s="6">
         <v>2025094874</v>
       </c>
-      <c r="C1224" s="16" t="s">
-        <v>10</v>
+      <c r="C1224" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
@@ -14044,8 +14026,8 @@
       <c r="B1225" s="6">
         <v>2025094828</v>
       </c>
-      <c r="C1225" s="16" t="s">
-        <v>10</v>
+      <c r="C1225" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -14055,8 +14037,8 @@
       <c r="B1226" s="6">
         <v>2025094902</v>
       </c>
-      <c r="C1226" s="16" t="s">
-        <v>10</v>
+      <c r="C1226" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1227" spans="1:3">
@@ -14066,8 +14048,8 @@
       <c r="B1227" s="6">
         <v>2025094854</v>
       </c>
-      <c r="C1227" s="16" t="s">
-        <v>10</v>
+      <c r="C1227" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1228" spans="1:3">
@@ -14077,8 +14059,8 @@
       <c r="B1228" s="6">
         <v>2025094830</v>
       </c>
-      <c r="C1228" s="16" t="s">
-        <v>10</v>
+      <c r="C1228" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
@@ -14088,8 +14070,8 @@
       <c r="B1229" s="6">
         <v>2025094944</v>
       </c>
-      <c r="C1229" s="16" t="s">
-        <v>10</v>
+      <c r="C1229" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1230" spans="1:3">
@@ -14099,8 +14081,8 @@
       <c r="B1230" s="6">
         <v>2025094900</v>
       </c>
-      <c r="C1230" s="16" t="s">
-        <v>10</v>
+      <c r="C1230" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1231" spans="1:3">
@@ -14110,8 +14092,8 @@
       <c r="B1231" s="6">
         <v>2025094829</v>
       </c>
-      <c r="C1231" s="16" t="s">
-        <v>10</v>
+      <c r="C1231" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1232" spans="1:3">
@@ -14121,8 +14103,8 @@
       <c r="B1232" s="6">
         <v>2025094876</v>
       </c>
-      <c r="C1232" s="16" t="s">
-        <v>10</v>
+      <c r="C1232" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
@@ -14132,8 +14114,8 @@
       <c r="B1233" s="6">
         <v>2025094843</v>
       </c>
-      <c r="C1233" s="16" t="s">
-        <v>10</v>
+      <c r="C1233" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1234" spans="1:3">
@@ -14143,8 +14125,8 @@
       <c r="B1234" s="6">
         <v>2025094823</v>
       </c>
-      <c r="C1234" s="16" t="s">
-        <v>10</v>
+      <c r="C1234" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
@@ -14154,8 +14136,8 @@
       <c r="B1235" s="6">
         <v>2025094831</v>
       </c>
-      <c r="C1235" s="16" t="s">
-        <v>10</v>
+      <c r="C1235" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
@@ -14165,8 +14147,8 @@
       <c r="B1236" s="6">
         <v>2025094824</v>
       </c>
-      <c r="C1236" s="16" t="s">
-        <v>10</v>
+      <c r="C1236" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -14176,8 +14158,8 @@
       <c r="B1237" s="6">
         <v>2025094835</v>
       </c>
-      <c r="C1237" s="16" t="s">
-        <v>10</v>
+      <c r="C1237" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1238" spans="1:3">
@@ -14187,8 +14169,8 @@
       <c r="B1238" s="6">
         <v>2025094822</v>
       </c>
-      <c r="C1238" s="16" t="s">
-        <v>10</v>
+      <c r="C1238" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1239" spans="1:3">
@@ -14198,8 +14180,8 @@
       <c r="B1239" s="6">
         <v>2025094914</v>
       </c>
-      <c r="C1239" s="16" t="s">
-        <v>10</v>
+      <c r="C1239" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
@@ -14209,8 +14191,8 @@
       <c r="B1240" s="6">
         <v>2025094891</v>
       </c>
-      <c r="C1240" s="16" t="s">
-        <v>10</v>
+      <c r="C1240" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1241" spans="1:3">
@@ -14220,8 +14202,8 @@
       <c r="B1241" s="6">
         <v>2025094805</v>
       </c>
-      <c r="C1241" s="16" t="s">
-        <v>10</v>
+      <c r="C1241" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14231,8 +14213,8 @@
       <c r="B1242" s="6">
         <v>2025094911</v>
       </c>
-      <c r="C1242" s="16" t="s">
-        <v>10</v>
+      <c r="C1242" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
@@ -14242,8 +14224,8 @@
       <c r="B1243" s="6">
         <v>2025094931</v>
       </c>
-      <c r="C1243" s="16" t="s">
-        <v>10</v>
+      <c r="C1243" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
@@ -14253,8 +14235,8 @@
       <c r="B1244" s="6">
         <v>2025094869</v>
       </c>
-      <c r="C1244" s="16" t="s">
-        <v>10</v>
+      <c r="C1244" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1245" spans="1:3">
@@ -14264,8 +14246,8 @@
       <c r="B1245" s="6">
         <v>2025094913</v>
       </c>
-      <c r="C1245" s="16" t="s">
-        <v>10</v>
+      <c r="C1245" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
@@ -14275,8 +14257,8 @@
       <c r="B1246" s="6">
         <v>2025094877</v>
       </c>
-      <c r="C1246" s="16" t="s">
-        <v>10</v>
+      <c r="C1246" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
@@ -14286,8 +14268,8 @@
       <c r="B1247" s="6">
         <v>2025094813</v>
       </c>
-      <c r="C1247" s="16" t="s">
-        <v>10</v>
+      <c r="C1247" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1248" spans="1:3">
@@ -14297,8 +14279,8 @@
       <c r="B1248" s="6">
         <v>2025094950</v>
       </c>
-      <c r="C1248" s="16" t="s">
-        <v>10</v>
+      <c r="C1248" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
@@ -14308,8 +14290,8 @@
       <c r="B1249" s="6">
         <v>2025094892</v>
       </c>
-      <c r="C1249" s="16" t="s">
-        <v>10</v>
+      <c r="C1249" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
@@ -14319,8 +14301,8 @@
       <c r="B1250" s="6">
         <v>2025094947</v>
       </c>
-      <c r="C1250" s="16" t="s">
-        <v>10</v>
+      <c r="C1250" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1251" spans="1:3">
@@ -14330,8 +14312,8 @@
       <c r="B1251" s="6">
         <v>2025094846</v>
       </c>
-      <c r="C1251" s="16" t="s">
-        <v>10</v>
+      <c r="C1251" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14341,8 +14323,8 @@
       <c r="B1252" s="6">
         <v>2025094917</v>
       </c>
-      <c r="C1252" s="16" t="s">
-        <v>10</v>
+      <c r="C1252" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1253" spans="1:3">
@@ -14352,8 +14334,8 @@
       <c r="B1253" s="6">
         <v>2025094851</v>
       </c>
-      <c r="C1253" s="16" t="s">
-        <v>10</v>
+      <c r="C1253" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
@@ -14363,8 +14345,8 @@
       <c r="B1254" s="6">
         <v>2025094951</v>
       </c>
-      <c r="C1254" s="16" t="s">
-        <v>10</v>
+      <c r="C1254" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
@@ -14374,8 +14356,8 @@
       <c r="B1255" s="6">
         <v>2025094867</v>
       </c>
-      <c r="C1255" s="16" t="s">
-        <v>10</v>
+      <c r="C1255" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
@@ -14385,8 +14367,8 @@
       <c r="B1256" s="6">
         <v>2025094825</v>
       </c>
-      <c r="C1256" s="16" t="s">
-        <v>10</v>
+      <c r="C1256" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1257" spans="1:3">
@@ -14396,8 +14378,8 @@
       <c r="B1257" s="6">
         <v>2025094838</v>
       </c>
-      <c r="C1257" s="16" t="s">
-        <v>10</v>
+      <c r="C1257" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1258" spans="1:3">
@@ -14407,8 +14389,8 @@
       <c r="B1258" s="6">
         <v>2025094806</v>
       </c>
-      <c r="C1258" s="16" t="s">
-        <v>10</v>
+      <c r="C1258" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1259" spans="1:3">
@@ -14418,8 +14400,8 @@
       <c r="B1259" s="6">
         <v>2025094934</v>
       </c>
-      <c r="C1259" s="16" t="s">
-        <v>10</v>
+      <c r="C1259" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
@@ -14429,8 +14411,8 @@
       <c r="B1260" s="6">
         <v>2025094808</v>
       </c>
-      <c r="C1260" s="16" t="s">
-        <v>10</v>
+      <c r="C1260" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
@@ -14440,8 +14422,8 @@
       <c r="B1261" s="6">
         <v>2025094861</v>
       </c>
-      <c r="C1261" s="16" t="s">
-        <v>10</v>
+      <c r="C1261" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1262" spans="1:3">
@@ -14451,8 +14433,8 @@
       <c r="B1262" s="6">
         <v>2025094858</v>
       </c>
-      <c r="C1262" s="16" t="s">
-        <v>10</v>
+      <c r="C1262" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
@@ -14462,8 +14444,8 @@
       <c r="B1263" s="6">
         <v>2025094868</v>
       </c>
-      <c r="C1263" s="16" t="s">
-        <v>10</v>
+      <c r="C1263" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
@@ -14473,8 +14455,8 @@
       <c r="B1264" s="6">
         <v>2025094932</v>
       </c>
-      <c r="C1264" s="16" t="s">
-        <v>10</v>
+      <c r="C1264" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
@@ -14484,8 +14466,8 @@
       <c r="B1265" s="6">
         <v>2025094898</v>
       </c>
-      <c r="C1265" s="16" t="s">
-        <v>10</v>
+      <c r="C1265" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
@@ -14495,8 +14477,8 @@
       <c r="B1266" s="6">
         <v>2025094820</v>
       </c>
-      <c r="C1266" s="16" t="s">
-        <v>10</v>
+      <c r="C1266" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14506,8 +14488,8 @@
       <c r="B1267" s="6">
         <v>2025094832</v>
       </c>
-      <c r="C1267" s="16" t="s">
-        <v>10</v>
+      <c r="C1267" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1268" spans="1:3">
@@ -14517,8 +14499,8 @@
       <c r="B1268" s="6">
         <v>2025094879</v>
       </c>
-      <c r="C1268" s="16" t="s">
-        <v>10</v>
+      <c r="C1268" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1269" spans="1:3">
@@ -14528,8 +14510,8 @@
       <c r="B1269" s="6">
         <v>2025094845</v>
       </c>
-      <c r="C1269" s="16" t="s">
-        <v>10</v>
+      <c r="C1269" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
@@ -14539,8 +14521,8 @@
       <c r="B1270" s="6">
         <v>2025094895</v>
       </c>
-      <c r="C1270" s="16" t="s">
-        <v>10</v>
+      <c r="C1270" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
@@ -14550,8 +14532,8 @@
       <c r="B1271" s="6">
         <v>2025094816</v>
       </c>
-      <c r="C1271" s="16" t="s">
-        <v>10</v>
+      <c r="C1271" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14561,8 +14543,8 @@
       <c r="B1272" s="6">
         <v>2025094890</v>
       </c>
-      <c r="C1272" s="16" t="s">
-        <v>10</v>
+      <c r="C1272" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1273" spans="1:3">
@@ -14572,8 +14554,8 @@
       <c r="B1273" s="6">
         <v>2025094883</v>
       </c>
-      <c r="C1273" s="16" t="s">
-        <v>10</v>
+      <c r="C1273" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1274" spans="1:3">
@@ -14583,8 +14565,8 @@
       <c r="B1274" s="6">
         <v>2025094841</v>
       </c>
-      <c r="C1274" s="16" t="s">
-        <v>10</v>
+      <c r="C1274" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
@@ -14594,8 +14576,8 @@
       <c r="B1275" s="6">
         <v>2025094906</v>
       </c>
-      <c r="C1275" s="16" t="s">
-        <v>10</v>
+      <c r="C1275" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
@@ -14605,8 +14587,8 @@
       <c r="B1276" s="6">
         <v>2025094863</v>
       </c>
-      <c r="C1276" s="16" t="s">
-        <v>10</v>
+      <c r="C1276" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1277" spans="1:3">
@@ -14616,8 +14598,8 @@
       <c r="B1277" s="6">
         <v>2025094941</v>
       </c>
-      <c r="C1277" s="16" t="s">
-        <v>10</v>
+      <c r="C1277" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14627,8 +14609,8 @@
       <c r="B1278" s="6">
         <v>2025094859</v>
       </c>
-      <c r="C1278" s="16" t="s">
-        <v>10</v>
+      <c r="C1278" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
@@ -14638,8 +14620,8 @@
       <c r="B1279" s="6">
         <v>2025094916</v>
       </c>
-      <c r="C1279" s="16" t="s">
-        <v>10</v>
+      <c r="C1279" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
@@ -14649,8 +14631,8 @@
       <c r="B1280" s="6">
         <v>2025094885</v>
       </c>
-      <c r="C1280" s="16" t="s">
-        <v>10</v>
+      <c r="C1280" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
@@ -14660,8 +14642,8 @@
       <c r="B1281" s="6">
         <v>2025094939</v>
       </c>
-      <c r="C1281" s="16" t="s">
-        <v>10</v>
+      <c r="C1281" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
@@ -14671,8 +14653,8 @@
       <c r="B1282" s="6">
         <v>2025094889</v>
       </c>
-      <c r="C1282" s="16" t="s">
-        <v>10</v>
+      <c r="C1282" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
@@ -14682,8 +14664,8 @@
       <c r="B1283" s="6">
         <v>2025094836</v>
       </c>
-      <c r="C1283" s="16" t="s">
-        <v>10</v>
+      <c r="C1283" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
@@ -14693,8 +14675,8 @@
       <c r="B1284" s="6">
         <v>2025094926</v>
       </c>
-      <c r="C1284" s="16" t="s">
-        <v>10</v>
+      <c r="C1284" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14704,8 +14686,8 @@
       <c r="B1285" s="6">
         <v>2025094807</v>
       </c>
-      <c r="C1285" s="16" t="s">
-        <v>10</v>
+      <c r="C1285" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1286" spans="1:3">
@@ -14715,8 +14697,8 @@
       <c r="B1286" s="6">
         <v>2025094871</v>
       </c>
-      <c r="C1286" s="16" t="s">
-        <v>10</v>
+      <c r="C1286" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
@@ -14726,8 +14708,8 @@
       <c r="B1287" s="6">
         <v>2025094826</v>
       </c>
-      <c r="C1287" s="16" t="s">
-        <v>10</v>
+      <c r="C1287" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
@@ -14737,8 +14719,8 @@
       <c r="B1288" s="6">
         <v>2025094919</v>
       </c>
-      <c r="C1288" s="16" t="s">
-        <v>10</v>
+      <c r="C1288" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
@@ -14748,8 +14730,8 @@
       <c r="B1289" s="6">
         <v>2025094909</v>
       </c>
-      <c r="C1289" s="16" t="s">
-        <v>10</v>
+      <c r="C1289" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
@@ -14759,8 +14741,8 @@
       <c r="B1290" s="7">
         <v>2025094940</v>
       </c>
-      <c r="C1290" s="16" t="s">
-        <v>10</v>
+      <c r="C1290" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1291" spans="1:3">
@@ -14770,8 +14752,8 @@
       <c r="B1291" s="6">
         <v>2025094995</v>
       </c>
-      <c r="C1291" s="16" t="s">
-        <v>11</v>
+      <c r="C1291" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14781,8 +14763,8 @@
       <c r="B1292" s="6">
         <v>2025095126</v>
       </c>
-      <c r="C1292" s="16" t="s">
-        <v>11</v>
+      <c r="C1292" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
@@ -14792,8 +14774,8 @@
       <c r="B1293" s="6">
         <v>2025095074</v>
       </c>
-      <c r="C1293" s="16" t="s">
-        <v>11</v>
+      <c r="C1293" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
@@ -14803,8 +14785,8 @@
       <c r="B1294" s="6">
         <v>2025095071</v>
       </c>
-      <c r="C1294" s="16" t="s">
-        <v>11</v>
+      <c r="C1294" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
@@ -14814,8 +14796,8 @@
       <c r="B1295" s="6">
         <v>2025095060</v>
       </c>
-      <c r="C1295" s="16" t="s">
-        <v>11</v>
+      <c r="C1295" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1296" spans="1:3">
@@ -14825,8 +14807,8 @@
       <c r="B1296" s="6">
         <v>2025094989</v>
       </c>
-      <c r="C1296" s="16" t="s">
-        <v>11</v>
+      <c r="C1296" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
@@ -14836,8 +14818,8 @@
       <c r="B1297" s="6">
         <v>2025095046</v>
       </c>
-      <c r="C1297" s="16" t="s">
-        <v>11</v>
+      <c r="C1297" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14847,8 +14829,8 @@
       <c r="B1298" s="6">
         <v>2025094964</v>
       </c>
-      <c r="C1298" s="16" t="s">
-        <v>11</v>
+      <c r="C1298" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
@@ -14858,8 +14840,8 @@
       <c r="B1299" s="6">
         <v>2025094988</v>
       </c>
-      <c r="C1299" s="16" t="s">
-        <v>11</v>
+      <c r="C1299" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
@@ -14869,8 +14851,8 @@
       <c r="B1300" s="6">
         <v>2025095143</v>
       </c>
-      <c r="C1300" s="16" t="s">
-        <v>11</v>
+      <c r="C1300" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
@@ -14880,8 +14862,8 @@
       <c r="B1301" s="6">
         <v>2025095118</v>
       </c>
-      <c r="C1301" s="16" t="s">
-        <v>11</v>
+      <c r="C1301" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
@@ -14891,8 +14873,8 @@
       <c r="B1302" s="6">
         <v>2025095067</v>
       </c>
-      <c r="C1302" s="16" t="s">
-        <v>11</v>
+      <c r="C1302" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
@@ -14902,8 +14884,8 @@
       <c r="B1303" s="6">
         <v>2025095078</v>
       </c>
-      <c r="C1303" s="16" t="s">
-        <v>11</v>
+      <c r="C1303" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
@@ -14913,8 +14895,8 @@
       <c r="B1304" s="6">
         <v>2025095076</v>
       </c>
-      <c r="C1304" s="16" t="s">
-        <v>11</v>
+      <c r="C1304" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1305" spans="1:3">
@@ -14924,8 +14906,8 @@
       <c r="B1305" s="6">
         <v>2025095030</v>
       </c>
-      <c r="C1305" s="16" t="s">
-        <v>11</v>
+      <c r="C1305" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
@@ -14935,8 +14917,8 @@
       <c r="B1306" s="6">
         <v>2025095038</v>
       </c>
-      <c r="C1306" s="16" t="s">
-        <v>11</v>
+      <c r="C1306" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
@@ -14946,8 +14928,8 @@
       <c r="B1307" s="6">
         <v>2025095032</v>
       </c>
-      <c r="C1307" s="16" t="s">
-        <v>11</v>
+      <c r="C1307" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14957,8 +14939,8 @@
       <c r="B1308" s="6">
         <v>2025095134</v>
       </c>
-      <c r="C1308" s="16" t="s">
-        <v>11</v>
+      <c r="C1308" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
@@ -14968,8 +14950,8 @@
       <c r="B1309" s="6">
         <v>2025094985</v>
       </c>
-      <c r="C1309" s="16" t="s">
-        <v>11</v>
+      <c r="C1309" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14979,8 +14961,8 @@
       <c r="B1310" s="6">
         <v>2025095085</v>
       </c>
-      <c r="C1310" s="16" t="s">
-        <v>11</v>
+      <c r="C1310" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14990,8 +14972,8 @@
       <c r="B1311" s="6">
         <v>2025095120</v>
       </c>
-      <c r="C1311" s="16" t="s">
-        <v>11</v>
+      <c r="C1311" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
@@ -15001,8 +14983,8 @@
       <c r="B1312" s="6">
         <v>2025095033</v>
       </c>
-      <c r="C1312" s="16" t="s">
-        <v>11</v>
+      <c r="C1312" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
@@ -15012,8 +14994,8 @@
       <c r="B1313" s="6">
         <v>2025094970</v>
       </c>
-      <c r="C1313" s="16" t="s">
-        <v>11</v>
+      <c r="C1313" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
@@ -15023,8 +15005,8 @@
       <c r="B1314" s="6">
         <v>2025094968</v>
       </c>
-      <c r="C1314" s="16" t="s">
-        <v>11</v>
+      <c r="C1314" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -15034,8 +15016,8 @@
       <c r="B1315" s="6">
         <v>2025095028</v>
       </c>
-      <c r="C1315" s="16" t="s">
-        <v>11</v>
+      <c r="C1315" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -15045,8 +15027,8 @@
       <c r="B1316" s="6">
         <v>2025095114</v>
       </c>
-      <c r="C1316" s="16" t="s">
-        <v>11</v>
+      <c r="C1316" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
@@ -15056,8 +15038,8 @@
       <c r="B1317" s="6">
         <v>2025095140</v>
       </c>
-      <c r="C1317" s="16" t="s">
-        <v>11</v>
+      <c r="C1317" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -15067,8 +15049,8 @@
       <c r="B1318" s="6">
         <v>2025095079</v>
       </c>
-      <c r="C1318" s="16" t="s">
-        <v>11</v>
+      <c r="C1318" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -15078,8 +15060,8 @@
       <c r="B1319" s="6">
         <v>2025095015</v>
       </c>
-      <c r="C1319" s="16" t="s">
-        <v>11</v>
+      <c r="C1319" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -15089,8 +15071,8 @@
       <c r="B1320" s="6">
         <v>2025095136</v>
       </c>
-      <c r="C1320" s="16" t="s">
-        <v>11</v>
+      <c r="C1320" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
@@ -15100,8 +15082,8 @@
       <c r="B1321" s="6">
         <v>2025095066</v>
       </c>
-      <c r="C1321" s="16" t="s">
-        <v>11</v>
+      <c r="C1321" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
@@ -15111,8 +15093,8 @@
       <c r="B1322" s="6">
         <v>2025095042</v>
       </c>
-      <c r="C1322" s="16" t="s">
-        <v>11</v>
+      <c r="C1322" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
@@ -15122,8 +15104,8 @@
       <c r="B1323" s="6">
         <v>2025094997</v>
       </c>
-      <c r="C1323" s="16" t="s">
-        <v>11</v>
+      <c r="C1323" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1324" spans="1:3">
@@ -15133,8 +15115,8 @@
       <c r="B1324" s="6">
         <v>2025094992</v>
       </c>
-      <c r="C1324" s="16" t="s">
-        <v>11</v>
+      <c r="C1324" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -15144,8 +15126,8 @@
       <c r="B1325" s="6">
         <v>2025095104</v>
       </c>
-      <c r="C1325" s="16" t="s">
-        <v>11</v>
+      <c r="C1325" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
@@ -15155,8 +15137,8 @@
       <c r="B1326" s="6">
         <v>2025095101</v>
       </c>
-      <c r="C1326" s="16" t="s">
-        <v>11</v>
+      <c r="C1326" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
@@ -15166,8 +15148,8 @@
       <c r="B1327" s="6">
         <v>2025094991</v>
       </c>
-      <c r="C1327" s="16" t="s">
-        <v>11</v>
+      <c r="C1327" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -15177,8 +15159,8 @@
       <c r="B1328" s="6">
         <v>2025095112</v>
       </c>
-      <c r="C1328" s="16" t="s">
-        <v>11</v>
+      <c r="C1328" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1329" spans="1:3">
@@ -15188,8 +15170,8 @@
       <c r="B1329" s="6">
         <v>2025094973</v>
       </c>
-      <c r="C1329" s="16" t="s">
-        <v>11</v>
+      <c r="C1329" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1330" spans="1:3">
@@ -15199,8 +15181,8 @@
       <c r="B1330" s="6">
         <v>2025095048</v>
       </c>
-      <c r="C1330" s="16" t="s">
-        <v>11</v>
+      <c r="C1330" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
@@ -15210,8 +15192,8 @@
       <c r="B1331" s="6">
         <v>2025095059</v>
       </c>
-      <c r="C1331" s="16" t="s">
-        <v>11</v>
+      <c r="C1331" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
@@ -15221,8 +15203,8 @@
       <c r="B1332" s="6">
         <v>2025095123</v>
       </c>
-      <c r="C1332" s="16" t="s">
-        <v>11</v>
+      <c r="C1332" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15232,8 +15214,8 @@
       <c r="B1333" s="6">
         <v>2025095130</v>
       </c>
-      <c r="C1333" s="16" t="s">
-        <v>11</v>
+      <c r="C1333" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15243,8 +15225,8 @@
       <c r="B1334" s="6">
         <v>2025095092</v>
       </c>
-      <c r="C1334" s="16" t="s">
-        <v>11</v>
+      <c r="C1334" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15254,8 +15236,8 @@
       <c r="B1335" s="6">
         <v>2025095068</v>
       </c>
-      <c r="C1335" s="16" t="s">
-        <v>11</v>
+      <c r="C1335" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
@@ -15265,8 +15247,8 @@
       <c r="B1336" s="6">
         <v>2025095017</v>
       </c>
-      <c r="C1336" s="16" t="s">
-        <v>11</v>
+      <c r="C1336" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
@@ -15276,8 +15258,8 @@
       <c r="B1337" s="6">
         <v>2025095040</v>
       </c>
-      <c r="C1337" s="16" t="s">
-        <v>11</v>
+      <c r="C1337" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15287,8 +15269,8 @@
       <c r="B1338" s="6">
         <v>2025095070</v>
       </c>
-      <c r="C1338" s="16" t="s">
-        <v>11</v>
+      <c r="C1338" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
@@ -15298,8 +15280,8 @@
       <c r="B1339" s="6">
         <v>2025095097</v>
       </c>
-      <c r="C1339" s="16" t="s">
-        <v>11</v>
+      <c r="C1339" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15309,8 +15291,8 @@
       <c r="B1340" s="6">
         <v>2025094979</v>
       </c>
-      <c r="C1340" s="16" t="s">
-        <v>11</v>
+      <c r="C1340" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15320,8 +15302,8 @@
       <c r="B1341" s="6">
         <v>2025094982</v>
       </c>
-      <c r="C1341" s="16" t="s">
-        <v>11</v>
+      <c r="C1341" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15331,8 +15313,8 @@
       <c r="B1342" s="6">
         <v>2025095098</v>
       </c>
-      <c r="C1342" s="16" t="s">
-        <v>11</v>
+      <c r="C1342" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15342,8 +15324,8 @@
       <c r="B1343" s="6">
         <v>2025094961</v>
       </c>
-      <c r="C1343" s="16" t="s">
-        <v>11</v>
+      <c r="C1343" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15353,8 +15335,8 @@
       <c r="B1344" s="6">
         <v>2025095137</v>
       </c>
-      <c r="C1344" s="16" t="s">
-        <v>11</v>
+      <c r="C1344" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15364,8 +15346,8 @@
       <c r="B1345" s="6">
         <v>2025095089</v>
       </c>
-      <c r="C1345" s="16" t="s">
-        <v>11</v>
+      <c r="C1345" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
@@ -15375,8 +15357,8 @@
       <c r="B1346" s="6">
         <v>2025095121</v>
       </c>
-      <c r="C1346" s="16" t="s">
-        <v>11</v>
+      <c r="C1346" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15386,8 +15368,8 @@
       <c r="B1347" s="6">
         <v>2025095009</v>
       </c>
-      <c r="C1347" s="16" t="s">
-        <v>11</v>
+      <c r="C1347" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15397,8 +15379,8 @@
       <c r="B1348" s="6">
         <v>2025095036</v>
       </c>
-      <c r="C1348" s="16" t="s">
-        <v>11</v>
+      <c r="C1348" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15408,8 +15390,8 @@
       <c r="B1349" s="6">
         <v>2025094980</v>
       </c>
-      <c r="C1349" s="16" t="s">
-        <v>11</v>
+      <c r="C1349" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
@@ -15419,8 +15401,8 @@
       <c r="B1350" s="6">
         <v>2025095086</v>
       </c>
-      <c r="C1350" s="16" t="s">
-        <v>11</v>
+      <c r="C1350" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15430,8 +15412,8 @@
       <c r="B1351" s="6">
         <v>2025095088</v>
       </c>
-      <c r="C1351" s="16" t="s">
-        <v>11</v>
+      <c r="C1351" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15441,8 +15423,8 @@
       <c r="B1352" s="6">
         <v>2025094976</v>
       </c>
-      <c r="C1352" s="16" t="s">
-        <v>11</v>
+      <c r="C1352" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15452,8 +15434,8 @@
       <c r="B1353" s="6">
         <v>2025095039</v>
       </c>
-      <c r="C1353" s="16" t="s">
-        <v>11</v>
+      <c r="C1353" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15463,8 +15445,8 @@
       <c r="B1354" s="6">
         <v>2025094969</v>
       </c>
-      <c r="C1354" s="16" t="s">
-        <v>11</v>
+      <c r="C1354" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -15474,8 +15456,8 @@
       <c r="B1355" s="6">
         <v>2025094984</v>
       </c>
-      <c r="C1355" s="16" t="s">
-        <v>11</v>
+      <c r="C1355" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15485,8 +15467,8 @@
       <c r="B1356" s="6">
         <v>2025094960</v>
       </c>
-      <c r="C1356" s="16" t="s">
-        <v>11</v>
+      <c r="C1356" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15496,8 +15478,8 @@
       <c r="B1357" s="6">
         <v>2025095050</v>
       </c>
-      <c r="C1357" s="16" t="s">
-        <v>11</v>
+      <c r="C1357" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15507,8 +15489,8 @@
       <c r="B1358" s="6">
         <v>2025095127</v>
       </c>
-      <c r="C1358" s="16" t="s">
-        <v>11</v>
+      <c r="C1358" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15518,8 +15500,8 @@
       <c r="B1359" s="6">
         <v>2025095116</v>
       </c>
-      <c r="C1359" s="16" t="s">
-        <v>11</v>
+      <c r="C1359" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15529,8 +15511,8 @@
       <c r="B1360" s="6">
         <v>2025094967</v>
       </c>
-      <c r="C1360" s="16" t="s">
-        <v>11</v>
+      <c r="C1360" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
@@ -15540,8 +15522,8 @@
       <c r="B1361" s="6">
         <v>2025095016</v>
       </c>
-      <c r="C1361" s="16" t="s">
-        <v>11</v>
+      <c r="C1361" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15551,8 +15533,8 @@
       <c r="B1362" s="6">
         <v>2025094962</v>
       </c>
-      <c r="C1362" s="16" t="s">
-        <v>11</v>
+      <c r="C1362" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15562,8 +15544,8 @@
       <c r="B1363" s="6">
         <v>2025095019</v>
       </c>
-      <c r="C1363" s="16" t="s">
-        <v>11</v>
+      <c r="C1363" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15573,8 +15555,8 @@
       <c r="B1364" s="6">
         <v>2025095044</v>
       </c>
-      <c r="C1364" s="16" t="s">
-        <v>11</v>
+      <c r="C1364" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15584,8 +15566,8 @@
       <c r="B1365" s="6">
         <v>2025094999</v>
       </c>
-      <c r="C1365" s="16" t="s">
-        <v>11</v>
+      <c r="C1365" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15595,8 +15577,8 @@
       <c r="B1366" s="6">
         <v>2025095000</v>
       </c>
-      <c r="C1366" s="16" t="s">
-        <v>11</v>
+      <c r="C1366" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
@@ -15606,8 +15588,8 @@
       <c r="B1367" s="6">
         <v>2025095020</v>
       </c>
-      <c r="C1367" s="16" t="s">
-        <v>11</v>
+      <c r="C1367" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15617,8 +15599,8 @@
       <c r="B1368" s="6">
         <v>2025095132</v>
       </c>
-      <c r="C1368" s="16" t="s">
-        <v>11</v>
+      <c r="C1368" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15628,8 +15610,8 @@
       <c r="B1369" s="6">
         <v>2025095075</v>
       </c>
-      <c r="C1369" s="16" t="s">
-        <v>11</v>
+      <c r="C1369" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15639,8 +15621,8 @@
       <c r="B1370" s="6">
         <v>2025095109</v>
       </c>
-      <c r="C1370" s="16" t="s">
-        <v>11</v>
+      <c r="C1370" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -15650,8 +15632,8 @@
       <c r="B1371" s="6">
         <v>2025095108</v>
       </c>
-      <c r="C1371" s="16" t="s">
-        <v>11</v>
+      <c r="C1371" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15661,8 +15643,8 @@
       <c r="B1372" s="6">
         <v>2025095144</v>
       </c>
-      <c r="C1372" s="16" t="s">
-        <v>11</v>
+      <c r="C1372" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15672,8 +15654,8 @@
       <c r="B1373" s="6">
         <v>2025094986</v>
       </c>
-      <c r="C1373" s="16" t="s">
-        <v>11</v>
+      <c r="C1373" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15683,8 +15665,8 @@
       <c r="B1374" s="6">
         <v>2025095083</v>
       </c>
-      <c r="C1374" s="16" t="s">
-        <v>11</v>
+      <c r="C1374" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15694,8 +15676,8 @@
       <c r="B1375" s="6">
         <v>2025095146</v>
       </c>
-      <c r="C1375" s="16" t="s">
-        <v>11</v>
+      <c r="C1375" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15705,8 +15687,8 @@
       <c r="B1376" s="6">
         <v>2025095031</v>
       </c>
-      <c r="C1376" s="16" t="s">
-        <v>11</v>
+      <c r="C1376" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15716,8 +15698,8 @@
       <c r="B1377" s="6">
         <v>2025095058</v>
       </c>
-      <c r="C1377" s="16" t="s">
-        <v>11</v>
+      <c r="C1377" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15727,8 +15709,8 @@
       <c r="B1378" s="6">
         <v>2025095087</v>
       </c>
-      <c r="C1378" s="16" t="s">
-        <v>11</v>
+      <c r="C1378" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15738,8 +15720,8 @@
       <c r="B1379" s="6">
         <v>2025095099</v>
       </c>
-      <c r="C1379" s="16" t="s">
-        <v>11</v>
+      <c r="C1379" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
@@ -15749,8 +15731,8 @@
       <c r="B1380" s="6">
         <v>2025095129</v>
       </c>
-      <c r="C1380" s="16" t="s">
-        <v>11</v>
+      <c r="C1380" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -15760,8 +15742,8 @@
       <c r="B1381" s="6">
         <v>2025095119</v>
       </c>
-      <c r="C1381" s="16" t="s">
-        <v>11</v>
+      <c r="C1381" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15771,8 +15753,8 @@
       <c r="B1382" s="6">
         <v>2025095007</v>
       </c>
-      <c r="C1382" s="16" t="s">
-        <v>11</v>
+      <c r="C1382" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15782,8 +15764,8 @@
       <c r="B1383" s="6">
         <v>2025094963</v>
       </c>
-      <c r="C1383" s="16" t="s">
-        <v>11</v>
+      <c r="C1383" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
@@ -15793,8 +15775,8 @@
       <c r="B1384" s="6">
         <v>2025095133</v>
       </c>
-      <c r="C1384" s="16" t="s">
-        <v>11</v>
+      <c r="C1384" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15804,8 +15786,8 @@
       <c r="B1385" s="6">
         <v>2025095023</v>
       </c>
-      <c r="C1385" s="16" t="s">
-        <v>11</v>
+      <c r="C1385" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15815,8 +15797,8 @@
       <c r="B1386" s="6">
         <v>2025095073</v>
       </c>
-      <c r="C1386" s="16" t="s">
-        <v>11</v>
+      <c r="C1386" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
@@ -15826,8 +15808,8 @@
       <c r="B1387" s="6">
         <v>2025094965</v>
       </c>
-      <c r="C1387" s="16" t="s">
-        <v>11</v>
+      <c r="C1387" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15837,8 +15819,8 @@
       <c r="B1388" s="6">
         <v>2025095004</v>
       </c>
-      <c r="C1388" s="16" t="s">
-        <v>11</v>
+      <c r="C1388" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15848,8 +15830,8 @@
       <c r="B1389" s="6">
         <v>2025095021</v>
       </c>
-      <c r="C1389" s="16" t="s">
-        <v>11</v>
+      <c r="C1389" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -15859,8 +15841,8 @@
       <c r="B1390" s="6">
         <v>2025095043</v>
       </c>
-      <c r="C1390" s="16" t="s">
-        <v>11</v>
+      <c r="C1390" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15870,8 +15852,8 @@
       <c r="B1391" s="6">
         <v>2025094993</v>
       </c>
-      <c r="C1391" s="16" t="s">
-        <v>11</v>
+      <c r="C1391" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15881,8 +15863,8 @@
       <c r="B1392" s="6">
         <v>2025094977</v>
       </c>
-      <c r="C1392" s="16" t="s">
-        <v>11</v>
+      <c r="C1392" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -15892,8 +15874,8 @@
       <c r="B1393" s="6">
         <v>2025095125</v>
       </c>
-      <c r="C1393" s="16" t="s">
-        <v>11</v>
+      <c r="C1393" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15903,8 +15885,8 @@
       <c r="B1394" s="6">
         <v>2025095122</v>
       </c>
-      <c r="C1394" s="16" t="s">
-        <v>11</v>
+      <c r="C1394" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15914,8 +15896,8 @@
       <c r="B1395" s="6">
         <v>2025095045</v>
       </c>
-      <c r="C1395" s="16" t="s">
-        <v>11</v>
+      <c r="C1395" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
@@ -15925,8 +15907,8 @@
       <c r="B1396" s="6">
         <v>2025094994</v>
       </c>
-      <c r="C1396" s="16" t="s">
-        <v>11</v>
+      <c r="C1396" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
@@ -15936,8 +15918,8 @@
       <c r="B1397" s="6">
         <v>2025094996</v>
       </c>
-      <c r="C1397" s="16" t="s">
-        <v>11</v>
+      <c r="C1397" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15947,8 +15929,8 @@
       <c r="B1398" s="6">
         <v>2025094971</v>
       </c>
-      <c r="C1398" s="16" t="s">
-        <v>11</v>
+      <c r="C1398" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15958,8 +15940,8 @@
       <c r="B1399" s="6">
         <v>2025095029</v>
       </c>
-      <c r="C1399" s="16" t="s">
-        <v>11</v>
+      <c r="C1399" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -15969,8 +15951,8 @@
       <c r="B1400" s="6">
         <v>2025094983</v>
       </c>
-      <c r="C1400" s="16" t="s">
-        <v>11</v>
+      <c r="C1400" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
@@ -15980,8 +15962,8 @@
       <c r="B1401" s="6">
         <v>2025095141</v>
       </c>
-      <c r="C1401" s="16" t="s">
-        <v>11</v>
+      <c r="C1401" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15991,8 +15973,8 @@
       <c r="B1402" s="6">
         <v>2025095025</v>
       </c>
-      <c r="C1402" s="16" t="s">
-        <v>11</v>
+      <c r="C1402" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -16002,8 +15984,8 @@
       <c r="B1403" s="6">
         <v>2025095037</v>
       </c>
-      <c r="C1403" s="16" t="s">
-        <v>11</v>
+      <c r="C1403" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -16013,8 +15995,8 @@
       <c r="B1404" s="6">
         <v>2025094974</v>
       </c>
-      <c r="C1404" s="16" t="s">
-        <v>11</v>
+      <c r="C1404" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
@@ -16024,8 +16006,8 @@
       <c r="B1405" s="6">
         <v>2025095145</v>
       </c>
-      <c r="C1405" s="16" t="s">
-        <v>11</v>
+      <c r="C1405" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -16035,8 +16017,8 @@
       <c r="B1406" s="6">
         <v>2025095001</v>
       </c>
-      <c r="C1406" s="16" t="s">
-        <v>11</v>
+      <c r="C1406" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -16046,8 +16028,8 @@
       <c r="B1407" s="6">
         <v>2025095080</v>
       </c>
-      <c r="C1407" s="16" t="s">
-        <v>11</v>
+      <c r="C1407" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
@@ -16057,8 +16039,8 @@
       <c r="B1408" s="6">
         <v>2025095012</v>
       </c>
-      <c r="C1408" s="16" t="s">
-        <v>11</v>
+      <c r="C1408" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
@@ -16068,8 +16050,8 @@
       <c r="B1409" s="6">
         <v>2025095111</v>
       </c>
-      <c r="C1409" s="16" t="s">
-        <v>11</v>
+      <c r="C1409" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1410" spans="1:3">
@@ -16079,8 +16061,8 @@
       <c r="B1410" s="6">
         <v>2025095102</v>
       </c>
-      <c r="C1410" s="16" t="s">
-        <v>11</v>
+      <c r="C1410" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -16090,8 +16072,8 @@
       <c r="B1411" s="6">
         <v>2025094987</v>
       </c>
-      <c r="C1411" s="16" t="s">
-        <v>11</v>
+      <c r="C1411" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1412" spans="1:3">
@@ -16101,8 +16083,8 @@
       <c r="B1412" s="6">
         <v>2025094966</v>
       </c>
-      <c r="C1412" s="16" t="s">
-        <v>11</v>
+      <c r="C1412" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -16112,8 +16094,8 @@
       <c r="B1413" s="6">
         <v>2025095049</v>
       </c>
-      <c r="C1413" s="16" t="s">
-        <v>11</v>
+      <c r="C1413" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
@@ -16123,8 +16105,8 @@
       <c r="B1414" s="6">
         <v>2025095013</v>
       </c>
-      <c r="C1414" s="16" t="s">
-        <v>11</v>
+      <c r="C1414" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -16134,8 +16116,8 @@
       <c r="B1415" s="6">
         <v>2025095117</v>
       </c>
-      <c r="C1415" s="16" t="s">
-        <v>11</v>
+      <c r="C1415" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -16145,8 +16127,8 @@
       <c r="B1416" s="6">
         <v>2025095053</v>
       </c>
-      <c r="C1416" s="16" t="s">
-        <v>11</v>
+      <c r="C1416" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -16156,8 +16138,8 @@
       <c r="B1417" s="6">
         <v>2025094975</v>
       </c>
-      <c r="C1417" s="16" t="s">
-        <v>11</v>
+      <c r="C1417" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1418" spans="1:3">
@@ -16167,8 +16149,8 @@
       <c r="B1418" s="6">
         <v>2025095047</v>
       </c>
-      <c r="C1418" s="16" t="s">
-        <v>11</v>
+      <c r="C1418" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
@@ -16178,8 +16160,8 @@
       <c r="B1419" s="6">
         <v>2025095011</v>
       </c>
-      <c r="C1419" s="16" t="s">
-        <v>11</v>
+      <c r="C1419" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16189,8 +16171,8 @@
       <c r="B1420" s="6">
         <v>2025094990</v>
       </c>
-      <c r="C1420" s="16" t="s">
-        <v>11</v>
+      <c r="C1420" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
@@ -16200,8 +16182,8 @@
       <c r="B1421" s="6">
         <v>2025095024</v>
       </c>
-      <c r="C1421" s="16" t="s">
-        <v>11</v>
+      <c r="C1421" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
@@ -16211,8 +16193,8 @@
       <c r="B1422" s="6">
         <v>2025095022</v>
       </c>
-      <c r="C1422" s="16" t="s">
-        <v>11</v>
+      <c r="C1422" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16222,8 +16204,8 @@
       <c r="B1423" s="6">
         <v>2025095093</v>
       </c>
-      <c r="C1423" s="16" t="s">
-        <v>11</v>
+      <c r="C1423" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
@@ -16233,8 +16215,8 @@
       <c r="B1424" s="6">
         <v>2025095002</v>
       </c>
-      <c r="C1424" s="16" t="s">
-        <v>11</v>
+      <c r="C1424" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16244,8 +16226,8 @@
       <c r="B1425" s="6">
         <v>2025095035</v>
       </c>
-      <c r="C1425" s="16" t="s">
-        <v>11</v>
+      <c r="C1425" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16255,8 +16237,8 @@
       <c r="B1426" s="6">
         <v>2025095090</v>
       </c>
-      <c r="C1426" s="16" t="s">
-        <v>11</v>
+      <c r="C1426" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1427" spans="1:3">
@@ -16266,8 +16248,8 @@
       <c r="B1427" s="6">
         <v>2025095063</v>
       </c>
-      <c r="C1427" s="16" t="s">
-        <v>11</v>
+      <c r="C1427" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
@@ -16277,8 +16259,8 @@
       <c r="B1428" s="6">
         <v>2025095100</v>
       </c>
-      <c r="C1428" s="16" t="s">
-        <v>11</v>
+      <c r="C1428" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1429" spans="1:3">
@@ -16288,8 +16270,8 @@
       <c r="B1429" s="6">
         <v>2025095069</v>
       </c>
-      <c r="C1429" s="16" t="s">
-        <v>11</v>
+      <c r="C1429" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
@@ -16299,8 +16281,8 @@
       <c r="B1430" s="6">
         <v>2025095064</v>
       </c>
-      <c r="C1430" s="16" t="s">
-        <v>11</v>
+      <c r="C1430" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
@@ -16310,8 +16292,8 @@
       <c r="B1431" s="6">
         <v>2025095115</v>
       </c>
-      <c r="C1431" s="16" t="s">
-        <v>11</v>
+      <c r="C1431" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
@@ -16321,8 +16303,8 @@
       <c r="B1432" s="6">
         <v>2025094981</v>
       </c>
-      <c r="C1432" s="16" t="s">
-        <v>11</v>
+      <c r="C1432" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -16332,8 +16314,8 @@
       <c r="B1433" s="6">
         <v>2025095124</v>
       </c>
-      <c r="C1433" s="16" t="s">
-        <v>11</v>
+      <c r="C1433" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
@@ -16343,8 +16325,8 @@
       <c r="B1434" s="6">
         <v>2025095055</v>
       </c>
-      <c r="C1434" s="16" t="s">
-        <v>11</v>
+      <c r="C1434" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
@@ -16354,8 +16336,8 @@
       <c r="B1435" s="6">
         <v>2025095057</v>
       </c>
-      <c r="C1435" s="16" t="s">
-        <v>11</v>
+      <c r="C1435" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
@@ -16365,8 +16347,8 @@
       <c r="B1436" s="6">
         <v>2025095081</v>
       </c>
-      <c r="C1436" s="16" t="s">
-        <v>11</v>
+      <c r="C1436" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16376,8 +16358,8 @@
       <c r="B1437" s="6">
         <v>2025095027</v>
       </c>
-      <c r="C1437" s="16" t="s">
-        <v>11</v>
+      <c r="C1437" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1438" spans="1:3">
@@ -16387,8 +16369,8 @@
       <c r="B1438" s="6">
         <v>2025095072</v>
       </c>
-      <c r="C1438" s="16" t="s">
-        <v>11</v>
+      <c r="C1438" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1439" spans="1:3">
@@ -16398,8 +16380,8 @@
       <c r="B1439" s="6">
         <v>2025095005</v>
       </c>
-      <c r="C1439" s="16" t="s">
-        <v>11</v>
+      <c r="C1439" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1440" spans="1:3">
@@ -16409,8 +16391,8 @@
       <c r="B1440" s="6">
         <v>2025095054</v>
       </c>
-      <c r="C1440" s="16" t="s">
-        <v>11</v>
+      <c r="C1440" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
@@ -16420,8 +16402,8 @@
       <c r="B1441" s="6">
         <v>2025095014</v>
       </c>
-      <c r="C1441" s="16" t="s">
-        <v>11</v>
+      <c r="C1441" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
@@ -16431,8 +16413,8 @@
       <c r="B1442" s="6">
         <v>2025095052</v>
       </c>
-      <c r="C1442" s="16" t="s">
-        <v>11</v>
+      <c r="C1442" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1443" spans="1:3">
@@ -16442,8 +16424,8 @@
       <c r="B1443" s="6">
         <v>2025095103</v>
       </c>
-      <c r="C1443" s="16" t="s">
-        <v>11</v>
+      <c r="C1443" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1444" spans="1:3">
@@ -16453,8 +16435,8 @@
       <c r="B1444" s="6">
         <v>2025095041</v>
       </c>
-      <c r="C1444" s="16" t="s">
-        <v>11</v>
+      <c r="C1444" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1445" spans="1:3">
@@ -16464,8 +16446,8 @@
       <c r="B1445" s="6">
         <v>2025094998</v>
       </c>
-      <c r="C1445" s="16" t="s">
-        <v>11</v>
+      <c r="C1445" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1446" spans="1:3">
@@ -16475,8 +16457,8 @@
       <c r="B1446" s="6">
         <v>2025094972</v>
       </c>
-      <c r="C1446" s="16" t="s">
-        <v>11</v>
+      <c r="C1446" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
@@ -16486,8 +16468,8 @@
       <c r="B1447" s="6">
         <v>2025095094</v>
       </c>
-      <c r="C1447" s="16" t="s">
-        <v>11</v>
+      <c r="C1447" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1448" spans="1:3">
@@ -16497,8 +16479,8 @@
       <c r="B1448" s="6">
         <v>2025095142</v>
       </c>
-      <c r="C1448" s="16" t="s">
-        <v>11</v>
+      <c r="C1448" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
@@ -16508,8 +16490,8 @@
       <c r="B1449" s="6">
         <v>2025095034</v>
       </c>
-      <c r="C1449" s="16" t="s">
-        <v>11</v>
+      <c r="C1449" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
@@ -16519,8 +16501,8 @@
       <c r="B1450" s="6">
         <v>2025095128</v>
       </c>
-      <c r="C1450" s="16" t="s">
-        <v>11</v>
+      <c r="C1450" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1451" spans="1:3">
@@ -16530,8 +16512,8 @@
       <c r="B1451" s="6">
         <v>2025095010</v>
       </c>
-      <c r="C1451" s="16" t="s">
-        <v>11</v>
+      <c r="C1451" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1452" spans="1:3">
@@ -16541,8 +16523,8 @@
       <c r="B1452" s="6">
         <v>2025095131</v>
       </c>
-      <c r="C1452" s="16" t="s">
-        <v>11</v>
+      <c r="C1452" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1453" spans="1:3">
@@ -16552,8 +16534,8 @@
       <c r="B1453" s="6">
         <v>2025095105</v>
       </c>
-      <c r="C1453" s="16" t="s">
-        <v>11</v>
+      <c r="C1453" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1454" spans="1:3">
@@ -16563,8 +16545,8 @@
       <c r="B1454" s="6">
         <v>2025095065</v>
       </c>
-      <c r="C1454" s="16" t="s">
-        <v>11</v>
+      <c r="C1454" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1455" spans="1:3">
@@ -16574,8 +16556,8 @@
       <c r="B1455" s="6">
         <v>2025095106</v>
       </c>
-      <c r="C1455" s="16" t="s">
-        <v>11</v>
+      <c r="C1455" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1456" spans="1:3">
@@ -16585,8 +16567,8 @@
       <c r="B1456" s="6">
         <v>2025095091</v>
       </c>
-      <c r="C1456" s="16" t="s">
-        <v>11</v>
+      <c r="C1456" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1457" spans="1:3">
@@ -16596,8 +16578,8 @@
       <c r="B1457" s="6">
         <v>2025095077</v>
       </c>
-      <c r="C1457" s="16" t="s">
-        <v>11</v>
+      <c r="C1457" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1458" spans="1:3">
@@ -16607,8 +16589,8 @@
       <c r="B1458" s="6">
         <v>2025094978</v>
       </c>
-      <c r="C1458" s="16" t="s">
-        <v>11</v>
+      <c r="C1458" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
@@ -16618,8 +16600,8 @@
       <c r="B1459" s="6">
         <v>2025095026</v>
       </c>
-      <c r="C1459" s="16" t="s">
-        <v>11</v>
+      <c r="C1459" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1460" spans="1:3">
@@ -16629,8 +16611,8 @@
       <c r="B1460" s="6">
         <v>2025095062</v>
       </c>
-      <c r="C1460" s="16" t="s">
-        <v>11</v>
+      <c r="C1460" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1461" spans="1:3">
@@ -16640,8 +16622,8 @@
       <c r="B1461" s="6">
         <v>2025095138</v>
       </c>
-      <c r="C1461" s="16" t="s">
-        <v>11</v>
+      <c r="C1461" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
@@ -16651,8 +16633,8 @@
       <c r="B1462" s="6">
         <v>2025095003</v>
       </c>
-      <c r="C1462" s="16" t="s">
-        <v>11</v>
+      <c r="C1462" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1463" spans="1:3">
@@ -16662,8 +16644,8 @@
       <c r="B1463" s="6">
         <v>2025095148</v>
       </c>
-      <c r="C1463" s="16" t="s">
-        <v>11</v>
+      <c r="C1463" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1464" spans="1:3">
@@ -16673,8 +16655,8 @@
       <c r="B1464" s="6">
         <v>2025095056</v>
       </c>
-      <c r="C1464" s="16" t="s">
-        <v>11</v>
+      <c r="C1464" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
@@ -16684,8 +16666,8 @@
       <c r="B1465" s="6">
         <v>2025095051</v>
       </c>
-      <c r="C1465" s="16" t="s">
-        <v>11</v>
+      <c r="C1465" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
@@ -16695,8 +16677,8 @@
       <c r="B1466" s="6">
         <v>2025095082</v>
       </c>
-      <c r="C1466" s="16" t="s">
-        <v>11</v>
+      <c r="C1466" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1467" spans="1:3">
@@ -16706,8 +16688,8 @@
       <c r="B1467" s="6">
         <v>2025095107</v>
       </c>
-      <c r="C1467" s="16" t="s">
-        <v>11</v>
+      <c r="C1467" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1468" spans="1:3">
@@ -16717,8 +16699,8 @@
       <c r="B1468" s="6">
         <v>2025095061</v>
       </c>
-      <c r="C1468" s="16" t="s">
-        <v>11</v>
+      <c r="C1468" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1469" spans="1:3">
@@ -16728,8 +16710,8 @@
       <c r="B1469" s="6">
         <v>2025095096</v>
       </c>
-      <c r="C1469" s="16" t="s">
-        <v>11</v>
+      <c r="C1469" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
@@ -16739,8 +16721,8 @@
       <c r="B1470" s="6">
         <v>2025095006</v>
       </c>
-      <c r="C1470" s="16" t="s">
-        <v>11</v>
+      <c r="C1470" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
@@ -16750,8 +16732,8 @@
       <c r="B1471" s="6">
         <v>2025095139</v>
       </c>
-      <c r="C1471" s="16" t="s">
-        <v>11</v>
+      <c r="C1471" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1472" spans="1:3">
@@ -16761,8 +16743,8 @@
       <c r="B1472" s="6">
         <v>2025095018</v>
       </c>
-      <c r="C1472" s="16" t="s">
-        <v>11</v>
+      <c r="C1472" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
@@ -16772,8 +16754,8 @@
       <c r="B1473" s="6">
         <v>2025095113</v>
       </c>
-      <c r="C1473" s="16" t="s">
-        <v>11</v>
+      <c r="C1473" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1474" spans="1:3">
@@ -16783,8 +16765,8 @@
       <c r="B1474" s="6">
         <v>2025095095</v>
       </c>
-      <c r="C1474" s="16" t="s">
-        <v>11</v>
+      <c r="C1474" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
@@ -16794,8 +16776,8 @@
       <c r="B1475" s="6">
         <v>2025095084</v>
       </c>
-      <c r="C1475" s="16" t="s">
-        <v>11</v>
+      <c r="C1475" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1476" spans="1:3">
@@ -16805,8 +16787,8 @@
       <c r="B1476" s="6">
         <v>2025095008</v>
       </c>
-      <c r="C1476" s="16" t="s">
-        <v>11</v>
+      <c r="C1476" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1477" spans="1:3">
@@ -16816,8 +16798,8 @@
       <c r="B1477" s="6">
         <v>2025095147</v>
       </c>
-      <c r="C1477" s="16" t="s">
-        <v>11</v>
+      <c r="C1477" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
@@ -16827,8 +16809,8 @@
       <c r="B1478" s="6">
         <v>2025095135</v>
       </c>
-      <c r="C1478" s="16" t="s">
-        <v>11</v>
+      <c r="C1478" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
@@ -16838,8 +16820,8 @@
       <c r="B1479" s="6">
         <v>2025095110</v>
       </c>
-      <c r="C1479" s="16" t="s">
-        <v>11</v>
+      <c r="C1479" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -16849,19 +16831,19 @@
       <c r="B1480" s="6">
         <v>2025094802</v>
       </c>
-      <c r="C1480" s="16" t="s">
-        <v>11</v>
+      <c r="C1480" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
-      <c r="A1481" s="17">
+      <c r="A1481" s="16">
         <v>1252346132</v>
       </c>
-      <c r="B1481" s="17">
+      <c r="B1481" s="16">
         <v>2025094801</v>
       </c>
-      <c r="C1481" s="18" t="s">
-        <v>11</v>
+      <c r="C1481" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
@@ -16871,8 +16853,8 @@
       <c r="B1482" s="6">
         <v>2025081865</v>
       </c>
-      <c r="C1482" s="16" t="s">
-        <v>12</v>
+      <c r="C1482" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
@@ -16882,8 +16864,8 @@
       <c r="B1483" s="6">
         <v>2025081830</v>
       </c>
-      <c r="C1483" s="16" t="s">
-        <v>12</v>
+      <c r="C1483" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1484" spans="1:3">
@@ -16893,8 +16875,8 @@
       <c r="B1484" s="6">
         <v>2025081808</v>
       </c>
-      <c r="C1484" s="16" t="s">
-        <v>12</v>
+      <c r="C1484" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1485" spans="1:3">
@@ -16904,8 +16886,8 @@
       <c r="B1485" s="6">
         <v>2025081856</v>
       </c>
-      <c r="C1485" s="16" t="s">
-        <v>12</v>
+      <c r="C1485" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1486" spans="1:3">
@@ -16915,8 +16897,8 @@
       <c r="B1486" s="6">
         <v>2025081833</v>
       </c>
-      <c r="C1486" s="16" t="s">
-        <v>12</v>
+      <c r="C1486" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
@@ -16926,8 +16908,8 @@
       <c r="B1487" s="6">
         <v>2025081839</v>
       </c>
-      <c r="C1487" s="16" t="s">
-        <v>12</v>
+      <c r="C1487" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -16937,8 +16919,8 @@
       <c r="B1488" s="6">
         <v>2025081818</v>
       </c>
-      <c r="C1488" s="16" t="s">
-        <v>12</v>
+      <c r="C1488" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1489" spans="1:3">
@@ -16948,8 +16930,8 @@
       <c r="B1489" s="6">
         <v>2025081853</v>
       </c>
-      <c r="C1489" s="16" t="s">
-        <v>12</v>
+      <c r="C1489" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1490" spans="1:3">
@@ -16959,8 +16941,8 @@
       <c r="B1490" s="6">
         <v>2025081826</v>
       </c>
-      <c r="C1490" s="16" t="s">
-        <v>12</v>
+      <c r="C1490" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1491" spans="1:3">
@@ -16970,8 +16952,8 @@
       <c r="B1491" s="6">
         <v>2025081825</v>
       </c>
-      <c r="C1491" s="16" t="s">
-        <v>12</v>
+      <c r="C1491" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
@@ -16981,8 +16963,8 @@
       <c r="B1492" s="6">
         <v>2025081854</v>
       </c>
-      <c r="C1492" s="16" t="s">
-        <v>12</v>
+      <c r="C1492" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16992,8 +16974,8 @@
       <c r="B1493" s="6">
         <v>2025081840</v>
       </c>
-      <c r="C1493" s="16" t="s">
-        <v>12</v>
+      <c r="C1493" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
@@ -17003,8 +16985,8 @@
       <c r="B1494" s="6">
         <v>2025081802</v>
       </c>
-      <c r="C1494" s="16" t="s">
-        <v>12</v>
+      <c r="C1494" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
@@ -17014,8 +16996,8 @@
       <c r="B1495" s="6">
         <v>2025081849</v>
       </c>
-      <c r="C1495" s="16" t="s">
-        <v>12</v>
+      <c r="C1495" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1496" spans="1:3">
@@ -17025,8 +17007,8 @@
       <c r="B1496" s="6">
         <v>2025081807</v>
       </c>
-      <c r="C1496" s="16" t="s">
-        <v>12</v>
+      <c r="C1496" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
@@ -17036,8 +17018,8 @@
       <c r="B1497" s="6">
         <v>2025081823</v>
       </c>
-      <c r="C1497" s="16" t="s">
-        <v>12</v>
+      <c r="C1497" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1498" spans="1:3">
@@ -17047,8 +17029,8 @@
       <c r="B1498" s="6">
         <v>2025081859</v>
       </c>
-      <c r="C1498" s="16" t="s">
-        <v>12</v>
+      <c r="C1498" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1499" spans="1:3">
@@ -17058,8 +17040,8 @@
       <c r="B1499" s="6">
         <v>2025081867</v>
       </c>
-      <c r="C1499" s="16" t="s">
-        <v>12</v>
+      <c r="C1499" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1500" spans="1:3">
@@ -17069,8 +17051,8 @@
       <c r="B1500" s="6">
         <v>2025081843</v>
       </c>
-      <c r="C1500" s="16" t="s">
-        <v>12</v>
+      <c r="C1500" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1501" spans="1:3">
@@ -17080,8 +17062,8 @@
       <c r="B1501" s="6">
         <v>2025081806</v>
       </c>
-      <c r="C1501" s="16" t="s">
-        <v>12</v>
+      <c r="C1501" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
@@ -17091,8 +17073,8 @@
       <c r="B1502" s="6">
         <v>2025081835</v>
       </c>
-      <c r="C1502" s="16" t="s">
-        <v>12</v>
+      <c r="C1502" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
@@ -17102,8 +17084,8 @@
       <c r="B1503" s="6">
         <v>2025081851</v>
       </c>
-      <c r="C1503" s="16" t="s">
-        <v>12</v>
+      <c r="C1503" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1504" spans="1:3">
@@ -17113,8 +17095,8 @@
       <c r="B1504" s="6">
         <v>2025081858</v>
       </c>
-      <c r="C1504" s="16" t="s">
-        <v>12</v>
+      <c r="C1504" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -17124,8 +17106,8 @@
       <c r="B1505" s="6">
         <v>2025081862</v>
       </c>
-      <c r="C1505" s="16" t="s">
-        <v>12</v>
+      <c r="C1505" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
@@ -17135,8 +17117,8 @@
       <c r="B1506" s="6">
         <v>2025081809</v>
       </c>
-      <c r="C1506" s="16" t="s">
-        <v>12</v>
+      <c r="C1506" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
@@ -17146,8 +17128,8 @@
       <c r="B1507" s="6">
         <v>2025081803</v>
       </c>
-      <c r="C1507" s="16" t="s">
-        <v>12</v>
+      <c r="C1507" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
@@ -17157,8 +17139,8 @@
       <c r="B1508" s="6">
         <v>2025081834</v>
       </c>
-      <c r="C1508" s="16" t="s">
-        <v>12</v>
+      <c r="C1508" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -17168,8 +17150,8 @@
       <c r="B1509" s="6">
         <v>2025081821</v>
       </c>
-      <c r="C1509" s="16" t="s">
-        <v>12</v>
+      <c r="C1509" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1510" spans="1:3">
@@ -17179,8 +17161,8 @@
       <c r="B1510" s="6">
         <v>2025081814</v>
       </c>
-      <c r="C1510" s="16" t="s">
-        <v>12</v>
+      <c r="C1510" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1511" spans="1:3">
@@ -17190,8 +17172,8 @@
       <c r="B1511" s="6">
         <v>2025081804</v>
       </c>
-      <c r="C1511" s="16" t="s">
-        <v>12</v>
+      <c r="C1511" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1512" spans="1:3">
@@ -17201,8 +17183,8 @@
       <c r="B1512" s="6">
         <v>2025081829</v>
       </c>
-      <c r="C1512" s="16" t="s">
-        <v>12</v>
+      <c r="C1512" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1513" spans="1:3">
@@ -17212,8 +17194,8 @@
       <c r="B1513" s="6">
         <v>2025081824</v>
       </c>
-      <c r="C1513" s="16" t="s">
-        <v>12</v>
+      <c r="C1513" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1514" spans="1:3">
@@ -17223,8 +17205,8 @@
       <c r="B1514" s="6">
         <v>2025081827</v>
       </c>
-      <c r="C1514" s="16" t="s">
-        <v>12</v>
+      <c r="C1514" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
@@ -17234,8 +17216,8 @@
       <c r="B1515" s="6">
         <v>2025081817</v>
       </c>
-      <c r="C1515" s="16" t="s">
-        <v>12</v>
+      <c r="C1515" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
@@ -17245,8 +17227,8 @@
       <c r="B1516" s="6">
         <v>2025081828</v>
       </c>
-      <c r="C1516" s="16" t="s">
-        <v>12</v>
+      <c r="C1516" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
@@ -17256,8 +17238,8 @@
       <c r="B1517" s="6">
         <v>2025081857</v>
       </c>
-      <c r="C1517" s="16" t="s">
-        <v>12</v>
+      <c r="C1517" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
@@ -17267,8 +17249,8 @@
       <c r="B1518" s="6">
         <v>2025081838</v>
       </c>
-      <c r="C1518" s="16" t="s">
-        <v>12</v>
+      <c r="C1518" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
@@ -17278,8 +17260,8 @@
       <c r="B1519" s="6">
         <v>2025081860</v>
       </c>
-      <c r="C1519" s="16" t="s">
-        <v>12</v>
+      <c r="C1519" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1520" spans="1:3">
@@ -17289,8 +17271,8 @@
       <c r="B1520" s="6">
         <v>2025081801</v>
       </c>
-      <c r="C1520" s="16" t="s">
-        <v>12</v>
+      <c r="C1520" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
@@ -17300,8 +17282,8 @@
       <c r="B1521" s="6">
         <v>2025081820</v>
       </c>
-      <c r="C1521" s="16" t="s">
-        <v>12</v>
+      <c r="C1521" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
@@ -17311,8 +17293,8 @@
       <c r="B1522" s="6">
         <v>2025081869</v>
       </c>
-      <c r="C1522" s="16" t="s">
-        <v>12</v>
+      <c r="C1522" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
@@ -17322,8 +17304,8 @@
       <c r="B1523" s="6">
         <v>2025081812</v>
       </c>
-      <c r="C1523" s="16" t="s">
-        <v>12</v>
+      <c r="C1523" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
@@ -17333,8 +17315,8 @@
       <c r="B1524" s="6">
         <v>2025081861</v>
       </c>
-      <c r="C1524" s="16" t="s">
-        <v>12</v>
+      <c r="C1524" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
@@ -17344,8 +17326,8 @@
       <c r="B1525" s="6">
         <v>2025081813</v>
       </c>
-      <c r="C1525" s="16" t="s">
-        <v>12</v>
+      <c r="C1525" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
@@ -17355,8 +17337,8 @@
       <c r="B1526" s="6">
         <v>2025081815</v>
       </c>
-      <c r="C1526" s="16" t="s">
-        <v>12</v>
+      <c r="C1526" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1527" spans="1:3">
@@ -17366,8 +17348,8 @@
       <c r="B1527" s="6">
         <v>2025081844</v>
       </c>
-      <c r="C1527" s="16" t="s">
-        <v>12</v>
+      <c r="C1527" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1528" spans="1:3">
@@ -17377,8 +17359,8 @@
       <c r="B1528" s="6">
         <v>2025081816</v>
       </c>
-      <c r="C1528" s="16" t="s">
-        <v>12</v>
+      <c r="C1528" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
@@ -17388,8 +17370,8 @@
       <c r="B1529" s="6">
         <v>2025081847</v>
       </c>
-      <c r="C1529" s="16" t="s">
-        <v>12</v>
+      <c r="C1529" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
@@ -17399,8 +17381,8 @@
       <c r="B1530" s="6">
         <v>2025081822</v>
       </c>
-      <c r="C1530" s="16" t="s">
-        <v>12</v>
+      <c r="C1530" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
@@ -17410,8 +17392,8 @@
       <c r="B1531" s="6">
         <v>2025081810</v>
       </c>
-      <c r="C1531" s="16" t="s">
-        <v>12</v>
+      <c r="C1531" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
@@ -17421,8 +17403,8 @@
       <c r="B1532" s="6">
         <v>2025081805</v>
       </c>
-      <c r="C1532" s="16" t="s">
-        <v>12</v>
+      <c r="C1532" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
@@ -17432,8 +17414,8 @@
       <c r="B1533" s="6">
         <v>2025081863</v>
       </c>
-      <c r="C1533" s="16" t="s">
-        <v>12</v>
+      <c r="C1533" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
@@ -17443,8 +17425,8 @@
       <c r="B1534" s="6">
         <v>2025081868</v>
       </c>
-      <c r="C1534" s="16" t="s">
-        <v>12</v>
+      <c r="C1534" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
@@ -17454,8 +17436,8 @@
       <c r="B1535" s="6">
         <v>2025081846</v>
       </c>
-      <c r="C1535" s="16" t="s">
-        <v>12</v>
+      <c r="C1535" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
@@ -17465,8 +17447,8 @@
       <c r="B1536" s="6">
         <v>2025081836</v>
       </c>
-      <c r="C1536" s="16" t="s">
-        <v>12</v>
+      <c r="C1536" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
@@ -17476,8 +17458,8 @@
       <c r="B1537" s="6">
         <v>2025081832</v>
       </c>
-      <c r="C1537" s="16" t="s">
-        <v>12</v>
+      <c r="C1537" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
@@ -17487,8 +17469,8 @@
       <c r="B1538" s="6">
         <v>2025081819</v>
       </c>
-      <c r="C1538" s="16" t="s">
-        <v>12</v>
+      <c r="C1538" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
@@ -17498,8 +17480,8 @@
       <c r="B1539" s="6">
         <v>2025081811</v>
       </c>
-      <c r="C1539" s="16" t="s">
-        <v>12</v>
+      <c r="C1539" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
@@ -17509,8 +17491,8 @@
       <c r="B1540" s="6">
         <v>2025081855</v>
       </c>
-      <c r="C1540" s="16" t="s">
-        <v>12</v>
+      <c r="C1540" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1541" spans="1:3">
@@ -17520,8 +17502,8 @@
       <c r="B1541" s="6">
         <v>2025081870</v>
       </c>
-      <c r="C1541" s="16" t="s">
-        <v>12</v>
+      <c r="C1541" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
@@ -17531,8 +17513,8 @@
       <c r="B1542" s="6">
         <v>2025081841</v>
       </c>
-      <c r="C1542" s="16" t="s">
-        <v>12</v>
+      <c r="C1542" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
@@ -17542,8 +17524,8 @@
       <c r="B1543" s="6">
         <v>2025081852</v>
       </c>
-      <c r="C1543" s="16" t="s">
-        <v>12</v>
+      <c r="C1543" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
@@ -17553,8 +17535,8 @@
       <c r="B1544" s="6">
         <v>2025081837</v>
       </c>
-      <c r="C1544" s="16" t="s">
-        <v>12</v>
+      <c r="C1544" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
@@ -17564,8 +17546,8 @@
       <c r="B1545" s="6">
         <v>2025081831</v>
       </c>
-      <c r="C1545" s="16" t="s">
-        <v>12</v>
+      <c r="C1545" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
@@ -17575,8 +17557,8 @@
       <c r="B1546" s="6">
         <v>2025081866</v>
       </c>
-      <c r="C1546" s="16" t="s">
-        <v>12</v>
+      <c r="C1546" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
@@ -17586,8 +17568,8 @@
       <c r="B1547" s="6">
         <v>2025081842</v>
       </c>
-      <c r="C1547" s="16" t="s">
-        <v>12</v>
+      <c r="C1547" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
@@ -17597,8 +17579,8 @@
       <c r="B1548" s="6">
         <v>2025081845</v>
       </c>
-      <c r="C1548" s="16" t="s">
-        <v>12</v>
+      <c r="C1548" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
@@ -17608,8 +17590,8 @@
       <c r="B1549" s="6">
         <v>2025081864</v>
       </c>
-      <c r="C1549" s="16" t="s">
-        <v>12</v>
+      <c r="C1549" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
@@ -17619,8 +17601,8 @@
       <c r="B1550" s="6">
         <v>2025081848</v>
       </c>
-      <c r="C1550" s="16" t="s">
-        <v>12</v>
+      <c r="C1550" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
@@ -17630,8 +17612,8 @@
       <c r="B1551" s="6">
         <v>2025081850</v>
       </c>
-      <c r="C1551" s="16" t="s">
-        <v>12</v>
+      <c r="C1551" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
@@ -17641,8 +17623,8 @@
       <c r="B1552" s="6">
         <v>2025138205</v>
       </c>
-      <c r="C1552" s="16" t="s">
-        <v>13</v>
+      <c r="C1552" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
@@ -17652,8 +17634,8 @@
       <c r="B1553" s="6">
         <v>2025138225</v>
       </c>
-      <c r="C1553" s="16" t="s">
-        <v>13</v>
+      <c r="C1553" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
@@ -17663,8 +17645,8 @@
       <c r="B1554" s="6">
         <v>2025138211</v>
       </c>
-      <c r="C1554" s="16" t="s">
-        <v>13</v>
+      <c r="C1554" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
@@ -17674,8 +17656,8 @@
       <c r="B1555" s="6">
         <v>2025138257</v>
       </c>
-      <c r="C1555" s="16" t="s">
-        <v>13</v>
+      <c r="C1555" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
@@ -17685,8 +17667,8 @@
       <c r="B1556" s="6">
         <v>2025138243</v>
       </c>
-      <c r="C1556" s="16" t="s">
-        <v>13</v>
+      <c r="C1556" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1557" spans="1:3">
@@ -17696,8 +17678,8 @@
       <c r="B1557" s="6">
         <v>2025138204</v>
       </c>
-      <c r="C1557" s="16" t="s">
-        <v>13</v>
+      <c r="C1557" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
@@ -17707,8 +17689,8 @@
       <c r="B1558" s="6">
         <v>2025138255</v>
       </c>
-      <c r="C1558" s="16" t="s">
-        <v>13</v>
+      <c r="C1558" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
@@ -17718,8 +17700,8 @@
       <c r="B1559" s="6">
         <v>2025138253</v>
       </c>
-      <c r="C1559" s="16" t="s">
-        <v>13</v>
+      <c r="C1559" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
@@ -17729,8 +17711,8 @@
       <c r="B1560" s="6">
         <v>2025138250</v>
       </c>
-      <c r="C1560" s="16" t="s">
-        <v>13</v>
+      <c r="C1560" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
@@ -17740,8 +17722,8 @@
       <c r="B1561" s="6">
         <v>2025138233</v>
       </c>
-      <c r="C1561" s="16" t="s">
-        <v>13</v>
+      <c r="C1561" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
@@ -17751,8 +17733,8 @@
       <c r="B1562" s="6">
         <v>2025138252</v>
       </c>
-      <c r="C1562" s="16" t="s">
-        <v>13</v>
+      <c r="C1562" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
@@ -17762,8 +17744,8 @@
       <c r="B1563" s="6">
         <v>2025138224</v>
       </c>
-      <c r="C1563" s="16" t="s">
-        <v>13</v>
+      <c r="C1563" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
@@ -17773,8 +17755,8 @@
       <c r="B1564" s="6">
         <v>2025138230</v>
       </c>
-      <c r="C1564" s="16" t="s">
-        <v>13</v>
+      <c r="C1564" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
@@ -17784,8 +17766,8 @@
       <c r="B1565" s="6">
         <v>2025138248</v>
       </c>
-      <c r="C1565" s="16" t="s">
-        <v>13</v>
+      <c r="C1565" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
@@ -17795,8 +17777,8 @@
       <c r="B1566" s="6">
         <v>2025138220</v>
       </c>
-      <c r="C1566" s="16" t="s">
-        <v>13</v>
+      <c r="C1566" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
@@ -17806,8 +17788,8 @@
       <c r="B1567" s="6">
         <v>2025138231</v>
       </c>
-      <c r="C1567" s="16" t="s">
-        <v>13</v>
+      <c r="C1567" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
@@ -17817,8 +17799,8 @@
       <c r="B1568" s="6">
         <v>2025138229</v>
       </c>
-      <c r="C1568" s="16" t="s">
-        <v>13</v>
+      <c r="C1568" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
@@ -17828,8 +17810,8 @@
       <c r="B1569" s="6">
         <v>2025138212</v>
       </c>
-      <c r="C1569" s="16" t="s">
-        <v>13</v>
+      <c r="C1569" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
@@ -17839,8 +17821,8 @@
       <c r="B1570" s="6">
         <v>2025138237</v>
       </c>
-      <c r="C1570" s="16" t="s">
-        <v>13</v>
+      <c r="C1570" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
@@ -17850,8 +17832,8 @@
       <c r="B1571" s="6">
         <v>2025138238</v>
       </c>
-      <c r="C1571" s="16" t="s">
-        <v>13</v>
+      <c r="C1571" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
@@ -17861,8 +17843,8 @@
       <c r="B1572" s="6">
         <v>2025138217</v>
       </c>
-      <c r="C1572" s="16" t="s">
-        <v>13</v>
+      <c r="C1572" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
@@ -17872,8 +17854,8 @@
       <c r="B1573" s="6">
         <v>2025138244</v>
       </c>
-      <c r="C1573" s="16" t="s">
-        <v>13</v>
+      <c r="C1573" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1574" spans="1:3">
@@ -17883,8 +17865,8 @@
       <c r="B1574" s="6">
         <v>2025138209</v>
       </c>
-      <c r="C1574" s="16" t="s">
-        <v>13</v>
+      <c r="C1574" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
@@ -17894,8 +17876,8 @@
       <c r="B1575" s="6">
         <v>2025138202</v>
       </c>
-      <c r="C1575" s="16" t="s">
-        <v>13</v>
+      <c r="C1575" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1576" spans="1:3">
@@ -17905,8 +17887,8 @@
       <c r="B1576" s="6">
         <v>2025138210</v>
       </c>
-      <c r="C1576" s="16" t="s">
-        <v>13</v>
+      <c r="C1576" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
@@ -17916,8 +17898,8 @@
       <c r="B1577" s="6">
         <v>2025138232</v>
       </c>
-      <c r="C1577" s="16" t="s">
-        <v>13</v>
+      <c r="C1577" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1578" spans="1:3">
@@ -17927,8 +17909,8 @@
       <c r="B1578" s="6">
         <v>2025138213</v>
       </c>
-      <c r="C1578" s="16" t="s">
-        <v>13</v>
+      <c r="C1578" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1579" spans="1:3">
@@ -17938,8 +17920,8 @@
       <c r="B1579" s="6">
         <v>2025138223</v>
       </c>
-      <c r="C1579" s="16" t="s">
-        <v>13</v>
+      <c r="C1579" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1580" spans="1:3">
@@ -17949,8 +17931,8 @@
       <c r="B1580" s="6">
         <v>2025138241</v>
       </c>
-      <c r="C1580" s="16" t="s">
-        <v>13</v>
+      <c r="C1580" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1581" spans="1:3">
@@ -17960,8 +17942,8 @@
       <c r="B1581" s="6">
         <v>2025138208</v>
       </c>
-      <c r="C1581" s="16" t="s">
-        <v>13</v>
+      <c r="C1581" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1582" spans="1:3">
@@ -17971,8 +17953,8 @@
       <c r="B1582" s="6">
         <v>2025138203</v>
       </c>
-      <c r="C1582" s="16" t="s">
-        <v>13</v>
+      <c r="C1582" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1583" spans="1:3">
@@ -17982,8 +17964,8 @@
       <c r="B1583" s="6">
         <v>2025138214</v>
       </c>
-      <c r="C1583" s="16" t="s">
-        <v>13</v>
+      <c r="C1583" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1584" spans="1:3">
@@ -17993,8 +17975,8 @@
       <c r="B1584" s="6">
         <v>2025138234</v>
       </c>
-      <c r="C1584" s="16" t="s">
-        <v>13</v>
+      <c r="C1584" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
@@ -18004,8 +17986,8 @@
       <c r="B1585" s="6">
         <v>2025138254</v>
       </c>
-      <c r="C1585" s="16" t="s">
-        <v>13</v>
+      <c r="C1585" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1586" spans="1:3">
@@ -18015,8 +17997,8 @@
       <c r="B1586" s="6">
         <v>2025138219</v>
       </c>
-      <c r="C1586" s="16" t="s">
-        <v>13</v>
+      <c r="C1586" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1587" spans="1:3">
@@ -18026,8 +18008,8 @@
       <c r="B1587" s="6">
         <v>2025138227</v>
       </c>
-      <c r="C1587" s="16" t="s">
-        <v>13</v>
+      <c r="C1587" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
@@ -18037,8 +18019,8 @@
       <c r="B1588" s="6">
         <v>2025138246</v>
       </c>
-      <c r="C1588" s="16" t="s">
-        <v>13</v>
+      <c r="C1588" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1589" spans="1:3">
@@ -18048,8 +18030,8 @@
       <c r="B1589" s="6">
         <v>2025138256</v>
       </c>
-      <c r="C1589" s="16" t="s">
-        <v>13</v>
+      <c r="C1589" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1590" spans="1:3">
@@ -18059,8 +18041,8 @@
       <c r="B1590" s="6">
         <v>2025138207</v>
       </c>
-      <c r="C1590" s="16" t="s">
-        <v>13</v>
+      <c r="C1590" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1591" spans="1:3">
@@ -18070,8 +18052,8 @@
       <c r="B1591" s="6">
         <v>2025138249</v>
       </c>
-      <c r="C1591" s="16" t="s">
-        <v>13</v>
+      <c r="C1591" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1592" spans="1:3">
@@ -18081,8 +18063,8 @@
       <c r="B1592" s="6">
         <v>2025138222</v>
       </c>
-      <c r="C1592" s="16" t="s">
-        <v>13</v>
+      <c r="C1592" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1593" spans="1:3">
@@ -18092,8 +18074,8 @@
       <c r="B1593" s="6">
         <v>2025138228</v>
       </c>
-      <c r="C1593" s="16" t="s">
-        <v>13</v>
+      <c r="C1593" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1594" spans="1:3">
@@ -18103,8 +18085,8 @@
       <c r="B1594" s="6">
         <v>2025138201</v>
       </c>
-      <c r="C1594" s="16" t="s">
-        <v>13</v>
+      <c r="C1594" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1595" spans="1:3">
@@ -18114,8 +18096,8 @@
       <c r="B1595" s="6">
         <v>2025138218</v>
       </c>
-      <c r="C1595" s="16" t="s">
-        <v>13</v>
+      <c r="C1595" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1596" spans="1:3">
@@ -18125,8 +18107,8 @@
       <c r="B1596" s="6">
         <v>2025138235</v>
       </c>
-      <c r="C1596" s="16" t="s">
-        <v>13</v>
+      <c r="C1596" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1597" spans="1:3">
@@ -18136,8 +18118,8 @@
       <c r="B1597" s="6">
         <v>2025138215</v>
       </c>
-      <c r="C1597" s="16" t="s">
-        <v>13</v>
+      <c r="C1597" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1598" spans="1:3">
@@ -18147,8 +18129,8 @@
       <c r="B1598" s="6">
         <v>2025138240</v>
       </c>
-      <c r="C1598" s="16" t="s">
-        <v>13</v>
+      <c r="C1598" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1599" spans="1:3">
@@ -18158,8 +18140,8 @@
       <c r="B1599" s="6">
         <v>2025138236</v>
       </c>
-      <c r="C1599" s="16" t="s">
-        <v>13</v>
+      <c r="C1599" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1600" spans="1:3">
@@ -18169,8 +18151,8 @@
       <c r="B1600" s="6">
         <v>2025138245</v>
       </c>
-      <c r="C1600" s="16" t="s">
-        <v>13</v>
+      <c r="C1600" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1601" spans="1:3">
@@ -18180,8 +18162,8 @@
       <c r="B1601" s="6">
         <v>2025138221</v>
       </c>
-      <c r="C1601" s="16" t="s">
-        <v>13</v>
+      <c r="C1601" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1602" spans="1:3">
@@ -18191,8 +18173,8 @@
       <c r="B1602" s="6">
         <v>2025138239</v>
       </c>
-      <c r="C1602" s="16" t="s">
-        <v>13</v>
+      <c r="C1602" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1603" spans="1:3">
@@ -18202,8 +18184,8 @@
       <c r="B1603" s="6">
         <v>2025138216</v>
       </c>
-      <c r="C1603" s="16" t="s">
-        <v>13</v>
+      <c r="C1603" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1604" spans="1:3">
@@ -18213,8 +18195,8 @@
       <c r="B1604" s="6">
         <v>2025138251</v>
       </c>
-      <c r="C1604" s="16" t="s">
-        <v>13</v>
+      <c r="C1604" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1605" spans="1:3">
@@ -18224,8 +18206,8 @@
       <c r="B1605" s="6">
         <v>2025138226</v>
       </c>
-      <c r="C1605" s="16" t="s">
-        <v>13</v>
+      <c r="C1605" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1606" spans="1:3">
@@ -18235,8 +18217,8 @@
       <c r="B1606" s="6">
         <v>2025138242</v>
       </c>
-      <c r="C1606" s="16" t="s">
-        <v>13</v>
+      <c r="C1606" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1607" spans="1:3">
@@ -18246,8 +18228,8 @@
       <c r="B1607" s="6">
         <v>2025138206</v>
       </c>
-      <c r="C1607" s="16" t="s">
-        <v>13</v>
+      <c r="C1607" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1608" spans="1:3">
@@ -18257,15 +18239,15 @@
       <c r="B1608" s="7">
         <v>2025138247</v>
       </c>
-      <c r="C1608" s="16" t="s">
-        <v>13</v>
+      <c r="C1608" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="1609" spans="1:3">
       <c r="A1609" s="3"/>
       <c r="B1609" s="3"/>
     </row>
-    <row r="1610" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1610" spans="1:3" ht="15" thickBot="1">
       <c r="A1610" s="4"/>
       <c r="B1610" s="4"/>
     </row>
@@ -18277,7 +18259,7 @@
       <c r="A1612" s="3"/>
       <c r="B1612" s="3"/>
     </row>
-    <row r="1613" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1613" spans="1:3" ht="15" thickBot="1">
       <c r="A1613" s="4"/>
       <c r="B1613" s="4"/>
     </row>
@@ -18289,7 +18271,7 @@
       <c r="A1615" s="3"/>
       <c r="B1615" s="3"/>
     </row>
-    <row r="1616" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1616" spans="1:3" ht="15" thickBot="1">
       <c r="A1616" s="4"/>
       <c r="B1616" s="4"/>
     </row>
@@ -18301,7 +18283,7 @@
       <c r="A1618" s="3"/>
       <c r="B1618" s="3"/>
     </row>
-    <row r="1619" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1619" spans="1:2" ht="15" thickBot="1">
       <c r="A1619" s="4"/>
       <c r="B1619" s="4"/>
     </row>
@@ -18313,7 +18295,7 @@
       <c r="A1621" s="3"/>
       <c r="B1621" s="3"/>
     </row>
-    <row r="1622" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1622" spans="1:2" ht="15" thickBot="1">
       <c r="A1622" s="4"/>
       <c r="B1622" s="4"/>
     </row>
@@ -18325,7 +18307,7 @@
       <c r="A1624" s="3"/>
       <c r="B1624" s="3"/>
     </row>
-    <row r="1625" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1625" spans="1:2" ht="15" thickBot="1">
       <c r="A1625" s="4"/>
       <c r="B1625" s="4"/>
     </row>
@@ -18337,7 +18319,7 @@
       <c r="A1627" s="3"/>
       <c r="B1627" s="3"/>
     </row>
-    <row r="1628" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1628" spans="1:2" ht="15" thickBot="1">
       <c r="A1628" s="4"/>
       <c r="B1628" s="4"/>
     </row>
@@ -18349,7 +18331,7 @@
       <c r="A1630" s="3"/>
       <c r="B1630" s="3"/>
     </row>
-    <row r="1631" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1631" spans="1:2" ht="15" thickBot="1">
       <c r="A1631" s="4"/>
       <c r="B1631" s="4"/>
     </row>
@@ -18361,7 +18343,7 @@
       <c r="A1633" s="3"/>
       <c r="B1633" s="3"/>
     </row>
-    <row r="1634" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1634" spans="1:2" ht="15" thickBot="1">
       <c r="A1634" s="4"/>
       <c r="B1634" s="4"/>
     </row>
@@ -18373,7 +18355,7 @@
       <c r="A1636" s="3"/>
       <c r="B1636" s="3"/>
     </row>
-    <row r="1637" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1637" spans="1:2" ht="15" thickBot="1">
       <c r="A1637" s="4"/>
       <c r="B1637" s="4"/>
     </row>
@@ -18385,7 +18367,7 @@
       <c r="A1639" s="3"/>
       <c r="B1639" s="3"/>
     </row>
-    <row r="1640" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1640" spans="1:2" ht="15" thickBot="1">
       <c r="A1640" s="4"/>
       <c r="B1640" s="4"/>
     </row>
@@ -18397,7 +18379,7 @@
       <c r="A1642" s="3"/>
       <c r="B1642" s="3"/>
     </row>
-    <row r="1643" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1643" spans="1:2" ht="15" thickBot="1">
       <c r="A1643" s="4"/>
       <c r="B1643" s="4"/>
     </row>
@@ -18409,7 +18391,7 @@
       <c r="A1645" s="3"/>
       <c r="B1645" s="3"/>
     </row>
-    <row r="1646" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1646" spans="1:2" ht="15" thickBot="1">
       <c r="A1646" s="4"/>
       <c r="B1646" s="4"/>
     </row>
@@ -18421,7 +18403,7 @@
       <c r="A1648" s="3"/>
       <c r="B1648" s="3"/>
     </row>
-    <row r="1649" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1649" spans="1:2" ht="15" thickBot="1">
       <c r="A1649" s="4"/>
       <c r="B1649" s="4"/>
     </row>
@@ -18433,7 +18415,7 @@
       <c r="A1651" s="3"/>
       <c r="B1651" s="3"/>
     </row>
-    <row r="1652" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1652" spans="1:2" ht="15" thickBot="1">
       <c r="A1652" s="4"/>
       <c r="B1652" s="4"/>
     </row>
@@ -18445,7 +18427,7 @@
       <c r="A1654" s="3"/>
       <c r="B1654" s="3"/>
     </row>
-    <row r="1655" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1655" spans="1:2" ht="15" thickBot="1">
       <c r="A1655" s="4"/>
       <c r="B1655" s="4"/>
     </row>
@@ -18457,7 +18439,7 @@
       <c r="A1657" s="3"/>
       <c r="B1657" s="3"/>
     </row>
-    <row r="1658" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1658" spans="1:2" ht="15" thickBot="1">
       <c r="A1658" s="4"/>
       <c r="B1658" s="4"/>
     </row>
@@ -18469,7 +18451,7 @@
       <c r="A1660" s="3"/>
       <c r="B1660" s="3"/>
     </row>
-    <row r="1661" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1661" spans="1:2" ht="15" thickBot="1">
       <c r="A1661" s="4"/>
       <c r="B1661" s="4"/>
     </row>
@@ -18481,7 +18463,7 @@
       <c r="A1663" s="3"/>
       <c r="B1663" s="3"/>
     </row>
-    <row r="1664" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1664" spans="1:2" ht="15" thickBot="1">
       <c r="A1664" s="4"/>
       <c r="B1664" s="4"/>
     </row>
@@ -18493,7 +18475,7 @@
       <c r="A1666" s="3"/>
       <c r="B1666" s="3"/>
     </row>
-    <row r="1667" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1667" spans="1:2" ht="15" thickBot="1">
       <c r="A1667" s="4"/>
       <c r="B1667" s="4"/>
     </row>
@@ -18505,7 +18487,7 @@
       <c r="A1669" s="3"/>
       <c r="B1669" s="3"/>
     </row>
-    <row r="1670" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1670" spans="1:2" ht="15" thickBot="1">
       <c r="A1670" s="4"/>
       <c r="B1670" s="4"/>
     </row>
@@ -18517,7 +18499,7 @@
       <c r="A1672" s="3"/>
       <c r="B1672" s="3"/>
     </row>
-    <row r="1673" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1673" spans="1:2" ht="15" thickBot="1">
       <c r="A1673" s="4"/>
       <c r="B1673" s="4"/>
     </row>
@@ -18529,7 +18511,7 @@
       <c r="A1675" s="3"/>
       <c r="B1675" s="3"/>
     </row>
-    <row r="1676" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1676" spans="1:2" ht="15" thickBot="1">
       <c r="A1676" s="4"/>
       <c r="B1676" s="4"/>
     </row>
@@ -18541,7 +18523,7 @@
       <c r="A1678" s="3"/>
       <c r="B1678" s="3"/>
     </row>
-    <row r="1679" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1679" spans="1:2" ht="15" thickBot="1">
       <c r="A1679" s="4"/>
       <c r="B1679" s="4"/>
     </row>
@@ -18553,7 +18535,7 @@
       <c r="A1681" s="3"/>
       <c r="B1681" s="3"/>
     </row>
-    <row r="1682" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1682" spans="1:2" ht="15" thickBot="1">
       <c r="A1682" s="4"/>
       <c r="B1682" s="4"/>
     </row>
@@ -18565,7 +18547,7 @@
       <c r="A1684" s="3"/>
       <c r="B1684" s="3"/>
     </row>
-    <row r="1685" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1685" spans="1:2" ht="15" thickBot="1">
       <c r="A1685" s="4"/>
       <c r="B1685" s="4"/>
     </row>
@@ -18577,7 +18559,7 @@
       <c r="A1687" s="3"/>
       <c r="B1687" s="3"/>
     </row>
-    <row r="1688" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1688" spans="1:2" ht="15" thickBot="1">
       <c r="A1688" s="4"/>
       <c r="B1688" s="4"/>
     </row>
@@ -18589,7 +18571,7 @@
       <c r="A1690" s="3"/>
       <c r="B1690" s="3"/>
     </row>
-    <row r="1691" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1691" spans="1:2" ht="15" thickBot="1">
       <c r="A1691" s="4"/>
       <c r="B1691" s="4"/>
     </row>
@@ -18601,7 +18583,7 @@
       <c r="A1693" s="3"/>
       <c r="B1693" s="3"/>
     </row>
-    <row r="1694" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1694" spans="1:2" ht="15" thickBot="1">
       <c r="A1694" s="4"/>
       <c r="B1694" s="4"/>
     </row>
@@ -18613,7 +18595,7 @@
       <c r="A1696" s="3"/>
       <c r="B1696" s="3"/>
     </row>
-    <row r="1697" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1697" spans="1:2" ht="15" thickBot="1">
       <c r="A1697" s="4"/>
       <c r="B1697" s="4"/>
     </row>
@@ -18625,7 +18607,7 @@
       <c r="A1699" s="3"/>
       <c r="B1699" s="3"/>
     </row>
-    <row r="1700" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1700" spans="1:2" ht="15" thickBot="1">
       <c r="A1700" s="4"/>
       <c r="B1700" s="4"/>
     </row>
@@ -18637,7 +18619,7 @@
       <c r="A1702" s="3"/>
       <c r="B1702" s="3"/>
     </row>
-    <row r="1703" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1703" spans="1:2" ht="15" thickBot="1">
       <c r="A1703" s="4"/>
       <c r="B1703" s="4"/>
     </row>
@@ -18649,7 +18631,7 @@
       <c r="A1705" s="3"/>
       <c r="B1705" s="3"/>
     </row>
-    <row r="1706" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1706" spans="1:2" ht="15" thickBot="1">
       <c r="A1706" s="4"/>
       <c r="B1706" s="4"/>
     </row>
@@ -18661,7 +18643,7 @@
       <c r="A1708" s="3"/>
       <c r="B1708" s="3"/>
     </row>
-    <row r="1709" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1709" spans="1:2" ht="15" thickBot="1">
       <c r="A1709" s="4"/>
       <c r="B1709" s="4"/>
     </row>
@@ -18673,7 +18655,7 @@
       <c r="A1711" s="3"/>
       <c r="B1711" s="3"/>
     </row>
-    <row r="1712" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1712" spans="1:2" ht="15" thickBot="1">
       <c r="A1712" s="4"/>
       <c r="B1712" s="4"/>
     </row>
@@ -18685,7 +18667,7 @@
       <c r="A1714" s="3"/>
       <c r="B1714" s="3"/>
     </row>
-    <row r="1715" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1715" spans="1:2" ht="15" thickBot="1">
       <c r="A1715" s="4"/>
       <c r="B1715" s="4"/>
     </row>
@@ -18697,7 +18679,7 @@
       <c r="A1717" s="3"/>
       <c r="B1717" s="3"/>
     </row>
-    <row r="1718" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1718" spans="1:2" ht="15" thickBot="1">
       <c r="A1718" s="4"/>
       <c r="B1718" s="4"/>
     </row>
@@ -18709,7 +18691,7 @@
       <c r="A1720" s="3"/>
       <c r="B1720" s="3"/>
     </row>
-    <row r="1721" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1721" spans="1:2" ht="15" thickBot="1">
       <c r="A1721" s="4"/>
       <c r="B1721" s="4"/>
     </row>
@@ -18721,7 +18703,7 @@
       <c r="A1723" s="3"/>
       <c r="B1723" s="3"/>
     </row>
-    <row r="1724" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1724" spans="1:2" ht="15" thickBot="1">
       <c r="A1724" s="4"/>
       <c r="B1724" s="4"/>
     </row>
@@ -18733,7 +18715,7 @@
       <c r="A1726" s="3"/>
       <c r="B1726" s="3"/>
     </row>
-    <row r="1727" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1727" spans="1:2" ht="15" thickBot="1">
       <c r="A1727" s="4"/>
       <c r="B1727" s="4"/>
     </row>
@@ -18745,7 +18727,7 @@
       <c r="A1729" s="3"/>
       <c r="B1729" s="3"/>
     </row>
-    <row r="1730" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1730" spans="1:2" ht="15" thickBot="1">
       <c r="A1730" s="4"/>
       <c r="B1730" s="4"/>
     </row>
@@ -18757,7 +18739,7 @@
       <c r="A1732" s="3"/>
       <c r="B1732" s="3"/>
     </row>
-    <row r="1733" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1733" spans="1:2" ht="15" thickBot="1">
       <c r="A1733" s="4"/>
       <c r="B1733" s="4"/>
     </row>
@@ -18769,7 +18751,7 @@
       <c r="A1735" s="3"/>
       <c r="B1735" s="3"/>
     </row>
-    <row r="1736" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1736" spans="1:2" ht="15" thickBot="1">
       <c r="A1736" s="4"/>
       <c r="B1736" s="4"/>
     </row>
@@ -18781,7 +18763,7 @@
       <c r="A1738" s="3"/>
       <c r="B1738" s="3"/>
     </row>
-    <row r="1739" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1739" spans="1:2" ht="15" thickBot="1">
       <c r="A1739" s="4"/>
       <c r="B1739" s="4"/>
     </row>
@@ -18793,7 +18775,7 @@
       <c r="A1741" s="3"/>
       <c r="B1741" s="3"/>
     </row>
-    <row r="1742" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1742" spans="1:2" ht="15" thickBot="1">
       <c r="A1742" s="4"/>
       <c r="B1742" s="4"/>
     </row>
@@ -18805,7 +18787,7 @@
       <c r="A1744" s="3"/>
       <c r="B1744" s="3"/>
     </row>
-    <row r="1745" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1745" spans="1:2" ht="15" thickBot="1">
       <c r="A1745" s="4"/>
       <c r="B1745" s="4"/>
     </row>
@@ -18817,7 +18799,7 @@
       <c r="A1747" s="3"/>
       <c r="B1747" s="3"/>
     </row>
-    <row r="1748" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1748" spans="1:2" ht="15" thickBot="1">
       <c r="A1748" s="4"/>
       <c r="B1748" s="4"/>
     </row>
@@ -18829,7 +18811,7 @@
       <c r="A1750" s="3"/>
       <c r="B1750" s="3"/>
     </row>
-    <row r="1751" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1751" spans="1:2" ht="15" thickBot="1">
       <c r="A1751" s="4"/>
       <c r="B1751" s="4"/>
     </row>
@@ -18841,7 +18823,7 @@
       <c r="A1753" s="3"/>
       <c r="B1753" s="3"/>
     </row>
-    <row r="1754" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1754" spans="1:2" ht="15" thickBot="1">
       <c r="A1754" s="4"/>
       <c r="B1754" s="4"/>
     </row>
@@ -18853,7 +18835,7 @@
       <c r="A1756" s="3"/>
       <c r="B1756" s="3"/>
     </row>
-    <row r="1757" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1757" spans="1:2" ht="15" thickBot="1">
       <c r="A1757" s="4"/>
       <c r="B1757" s="4"/>
     </row>
@@ -18865,7 +18847,7 @@
       <c r="A1759" s="3"/>
       <c r="B1759" s="3"/>
     </row>
-    <row r="1760" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1760" spans="1:2" ht="15" thickBot="1">
       <c r="A1760" s="4"/>
       <c r="B1760" s="4"/>
     </row>
@@ -18877,7 +18859,7 @@
       <c r="A1762" s="3"/>
       <c r="B1762" s="3"/>
     </row>
-    <row r="1763" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1763" spans="1:2" ht="15" thickBot="1">
       <c r="A1763" s="4"/>
       <c r="B1763" s="4"/>
     </row>
@@ -18889,7 +18871,7 @@
       <c r="A1765" s="3"/>
       <c r="B1765" s="3"/>
     </row>
-    <row r="1766" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1766" spans="1:2" ht="15" thickBot="1">
       <c r="A1766" s="4"/>
       <c r="B1766" s="4"/>
     </row>
@@ -18901,7 +18883,7 @@
       <c r="A1768" s="3"/>
       <c r="B1768" s="3"/>
     </row>
-    <row r="1769" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1769" spans="1:2" ht="15" thickBot="1">
       <c r="A1769" s="4"/>
       <c r="B1769" s="4"/>
     </row>
@@ -18913,7 +18895,7 @@
       <c r="A1771" s="3"/>
       <c r="B1771" s="3"/>
     </row>
-    <row r="1772" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1772" spans="1:2" ht="15" thickBot="1">
       <c r="A1772" s="4"/>
       <c r="B1772" s="4"/>
     </row>
@@ -18925,7 +18907,7 @@
       <c r="A1774" s="3"/>
       <c r="B1774" s="3"/>
     </row>
-    <row r="1775" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1775" spans="1:2" ht="15" thickBot="1">
       <c r="A1775" s="4"/>
       <c r="B1775" s="4"/>
     </row>
@@ -18937,7 +18919,7 @@
       <c r="A1777" s="3"/>
       <c r="B1777" s="3"/>
     </row>
-    <row r="1778" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1778" spans="1:2" ht="15" thickBot="1">
       <c r="A1778" s="4"/>
       <c r="B1778" s="4"/>
     </row>
@@ -18949,7 +18931,7 @@
       <c r="A1780" s="3"/>
       <c r="B1780" s="3"/>
     </row>
-    <row r="1781" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1781" spans="1:2" ht="15" thickBot="1">
       <c r="A1781" s="4"/>
       <c r="B1781" s="4"/>
     </row>
@@ -18961,7 +18943,7 @@
       <c r="A1783" s="3"/>
       <c r="B1783" s="3"/>
     </row>
-    <row r="1784" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1784" spans="1:2" ht="15" thickBot="1">
       <c r="A1784" s="4"/>
       <c r="B1784" s="4"/>
     </row>
@@ -18973,7 +18955,7 @@
       <c r="A1786" s="3"/>
       <c r="B1786" s="3"/>
     </row>
-    <row r="1787" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1787" spans="1:2" ht="15" thickBot="1">
       <c r="A1787" s="4"/>
       <c r="B1787" s="4"/>
     </row>
@@ -18985,7 +18967,7 @@
       <c r="A1789" s="3"/>
       <c r="B1789" s="3"/>
     </row>
-    <row r="1790" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1790" spans="1:2" ht="15" thickBot="1">
       <c r="A1790" s="4"/>
       <c r="B1790" s="4"/>
     </row>
@@ -18997,7 +18979,7 @@
       <c r="A1792" s="3"/>
       <c r="B1792" s="3"/>
     </row>
-    <row r="1793" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1793" spans="1:2" ht="15" thickBot="1">
       <c r="A1793" s="4"/>
       <c r="B1793" s="4"/>
     </row>
@@ -19009,7 +18991,7 @@
       <c r="A1795" s="3"/>
       <c r="B1795" s="3"/>
     </row>
-    <row r="1796" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1796" spans="1:2" ht="15" thickBot="1">
       <c r="A1796" s="4"/>
       <c r="B1796" s="4"/>
     </row>
@@ -19021,7 +19003,7 @@
       <c r="A1798" s="3"/>
       <c r="B1798" s="3"/>
     </row>
-    <row r="1799" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1799" spans="1:2" ht="15" thickBot="1">
       <c r="A1799" s="4"/>
       <c r="B1799" s="4"/>
     </row>
@@ -19033,7 +19015,7 @@
       <c r="A1801" s="3"/>
       <c r="B1801" s="3"/>
     </row>
-    <row r="1802" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1802" spans="1:2" ht="15" thickBot="1">
       <c r="A1802" s="4"/>
       <c r="B1802" s="4"/>
     </row>
@@ -19045,7 +19027,7 @@
       <c r="A1804" s="3"/>
       <c r="B1804" s="3"/>
     </row>
-    <row r="1805" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1805" spans="1:2" ht="15" thickBot="1">
       <c r="A1805" s="4"/>
       <c r="B1805" s="4"/>
     </row>
@@ -19057,7 +19039,7 @@
       <c r="A1807" s="3"/>
       <c r="B1807" s="3"/>
     </row>
-    <row r="1808" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1808" spans="1:2" ht="15" thickBot="1">
       <c r="A1808" s="4"/>
       <c r="B1808" s="4"/>
     </row>
@@ -19069,7 +19051,7 @@
       <c r="A1810" s="3"/>
       <c r="B1810" s="3"/>
     </row>
-    <row r="1811" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1811" spans="1:2" ht="15" thickBot="1">
       <c r="A1811" s="4"/>
       <c r="B1811" s="4"/>
     </row>
@@ -19081,7 +19063,7 @@
       <c r="A1813" s="3"/>
       <c r="B1813" s="3"/>
     </row>
-    <row r="1814" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1814" spans="1:2" ht="15" thickBot="1">
       <c r="A1814" s="4"/>
       <c r="B1814" s="4"/>
     </row>
@@ -19093,7 +19075,7 @@
       <c r="A1816" s="3"/>
       <c r="B1816" s="3"/>
     </row>
-    <row r="1817" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1817" spans="1:2" ht="15" thickBot="1">
       <c r="A1817" s="4"/>
       <c r="B1817" s="4"/>
     </row>
@@ -19105,7 +19087,7 @@
       <c r="A1819" s="3"/>
       <c r="B1819" s="3"/>
     </row>
-    <row r="1820" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1820" spans="1:2" ht="15" thickBot="1">
       <c r="A1820" s="4"/>
       <c r="B1820" s="4"/>
     </row>
@@ -19117,7 +19099,7 @@
       <c r="A1822" s="3"/>
       <c r="B1822" s="3"/>
     </row>
-    <row r="1823" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1823" spans="1:2" ht="15" thickBot="1">
       <c r="A1823" s="4"/>
       <c r="B1823" s="4"/>
     </row>
@@ -19129,7 +19111,7 @@
       <c r="A1825" s="3"/>
       <c r="B1825" s="3"/>
     </row>
-    <row r="1826" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1826" spans="1:2" ht="15" thickBot="1">
       <c r="A1826" s="4"/>
       <c r="B1826" s="4"/>
     </row>
@@ -19141,7 +19123,7 @@
       <c r="A1828" s="3"/>
       <c r="B1828" s="3"/>
     </row>
-    <row r="1829" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1829" spans="1:2" ht="15" thickBot="1">
       <c r="A1829" s="4"/>
       <c r="B1829" s="4"/>
     </row>
@@ -19153,7 +19135,7 @@
       <c r="A1831" s="3"/>
       <c r="B1831" s="3"/>
     </row>
-    <row r="1832" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1832" spans="1:2" ht="15" thickBot="1">
       <c r="A1832" s="4"/>
       <c r="B1832" s="4"/>
     </row>
@@ -19165,7 +19147,7 @@
       <c r="A1834" s="3"/>
       <c r="B1834" s="3"/>
     </row>
-    <row r="1835" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1835" spans="1:2" ht="15" thickBot="1">
       <c r="A1835" s="4"/>
       <c r="B1835" s="4"/>
     </row>
@@ -19177,7 +19159,7 @@
       <c r="A1837" s="3"/>
       <c r="B1837" s="3"/>
     </row>
-    <row r="1838" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1838" spans="1:2" ht="15" thickBot="1">
       <c r="A1838" s="4"/>
       <c r="B1838" s="4"/>
     </row>
@@ -19189,7 +19171,7 @@
       <c r="A1840" s="3"/>
       <c r="B1840" s="3"/>
     </row>
-    <row r="1841" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1841" spans="1:2" ht="15" thickBot="1">
       <c r="A1841" s="4"/>
       <c r="B1841" s="4"/>
     </row>
@@ -19201,7 +19183,7 @@
       <c r="A1843" s="3"/>
       <c r="B1843" s="3"/>
     </row>
-    <row r="1844" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1844" spans="1:2" ht="15" thickBot="1">
       <c r="A1844" s="4"/>
       <c r="B1844" s="4"/>
     </row>
@@ -19213,7 +19195,7 @@
       <c r="A1846" s="3"/>
       <c r="B1846" s="3"/>
     </row>
-    <row r="1847" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1847" spans="1:2" ht="15" thickBot="1">
       <c r="A1847" s="4"/>
       <c r="B1847" s="4"/>
     </row>
@@ -19225,7 +19207,7 @@
       <c r="A1849" s="3"/>
       <c r="B1849" s="3"/>
     </row>
-    <row r="1850" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1850" spans="1:2" ht="15" thickBot="1">
       <c r="A1850" s="4"/>
       <c r="B1850" s="4"/>
     </row>
@@ -19237,7 +19219,7 @@
       <c r="A1852" s="3"/>
       <c r="B1852" s="3"/>
     </row>
-    <row r="1853" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1853" spans="1:2" ht="15" thickBot="1">
       <c r="A1853" s="4"/>
       <c r="B1853" s="4"/>
     </row>
@@ -19249,7 +19231,7 @@
       <c r="A1855" s="3"/>
       <c r="B1855" s="3"/>
     </row>
-    <row r="1856" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1856" spans="1:2" ht="15" thickBot="1">
       <c r="A1856" s="4"/>
       <c r="B1856" s="4"/>
     </row>
@@ -19261,7 +19243,7 @@
       <c r="A1858" s="3"/>
       <c r="B1858" s="3"/>
     </row>
-    <row r="1859" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1859" spans="1:2" ht="15" thickBot="1">
       <c r="A1859" s="4"/>
       <c r="B1859" s="4"/>
     </row>
@@ -19273,7 +19255,7 @@
       <c r="A1861" s="3"/>
       <c r="B1861" s="3"/>
     </row>
-    <row r="1862" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1862" spans="1:2" ht="15" thickBot="1">
       <c r="A1862" s="4"/>
       <c r="B1862" s="4"/>
     </row>
@@ -19285,7 +19267,7 @@
       <c r="A1864" s="3"/>
       <c r="B1864" s="3"/>
     </row>
-    <row r="1865" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1865" spans="1:2" ht="15" thickBot="1">
       <c r="A1865" s="4"/>
       <c r="B1865" s="4"/>
     </row>
@@ -19297,7 +19279,7 @@
       <c r="A1867" s="3"/>
       <c r="B1867" s="3"/>
     </row>
-    <row r="1868" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1868" spans="1:2" ht="15" thickBot="1">
       <c r="A1868" s="4"/>
       <c r="B1868" s="4"/>
     </row>
@@ -19309,7 +19291,7 @@
       <c r="A1870" s="3"/>
       <c r="B1870" s="3"/>
     </row>
-    <row r="1871" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1871" spans="1:2" ht="15" thickBot="1">
       <c r="A1871" s="4"/>
       <c r="B1871" s="4"/>
     </row>
@@ -19321,7 +19303,7 @@
       <c r="A1873" s="3"/>
       <c r="B1873" s="3"/>
     </row>
-    <row r="1874" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1874" spans="1:2" ht="15" thickBot="1">
       <c r="A1874" s="4"/>
       <c r="B1874" s="4"/>
     </row>
@@ -19333,7 +19315,7 @@
       <c r="A1876" s="3"/>
       <c r="B1876" s="3"/>
     </row>
-    <row r="1877" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1877" spans="1:2" ht="15" thickBot="1">
       <c r="A1877" s="4"/>
       <c r="B1877" s="4"/>
     </row>
@@ -19345,7 +19327,7 @@
       <c r="A1879" s="3"/>
       <c r="B1879" s="3"/>
     </row>
-    <row r="1880" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1880" spans="1:2" ht="15" thickBot="1">
       <c r="A1880" s="4"/>
       <c r="B1880" s="4"/>
     </row>
@@ -19357,7 +19339,7 @@
       <c r="A1882" s="3"/>
       <c r="B1882" s="3"/>
     </row>
-    <row r="1883" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1883" spans="1:2" ht="15" thickBot="1">
       <c r="A1883" s="4"/>
       <c r="B1883" s="4"/>
     </row>
@@ -19369,7 +19351,7 @@
       <c r="A1885" s="3"/>
       <c r="B1885" s="3"/>
     </row>
-    <row r="1886" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1886" spans="1:2" ht="15" thickBot="1">
       <c r="A1886" s="4"/>
       <c r="B1886" s="4"/>
     </row>
@@ -19381,7 +19363,7 @@
       <c r="A1888" s="3"/>
       <c r="B1888" s="3"/>
     </row>
-    <row r="1889" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1889" spans="1:2" ht="15" thickBot="1">
       <c r="A1889" s="4"/>
       <c r="B1889" s="4"/>
     </row>
@@ -19393,7 +19375,7 @@
       <c r="A1891" s="3"/>
       <c r="B1891" s="3"/>
     </row>
-    <row r="1892" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1892" spans="1:2" ht="15" thickBot="1">
       <c r="A1892" s="4"/>
       <c r="B1892" s="4"/>
     </row>
@@ -19405,7 +19387,7 @@
       <c r="A1894" s="3"/>
       <c r="B1894" s="3"/>
     </row>
-    <row r="1895" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1895" spans="1:2" ht="15" thickBot="1">
       <c r="A1895" s="4"/>
       <c r="B1895" s="4"/>
     </row>
@@ -19417,7 +19399,7 @@
       <c r="A1897" s="3"/>
       <c r="B1897" s="3"/>
     </row>
-    <row r="1898" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1898" spans="1:2" ht="15" thickBot="1">
       <c r="A1898" s="4"/>
       <c r="B1898" s="4"/>
     </row>
@@ -19429,7 +19411,7 @@
       <c r="A1900" s="3"/>
       <c r="B1900" s="3"/>
     </row>
-    <row r="1901" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1901" spans="1:2" ht="15" thickBot="1">
       <c r="A1901" s="4"/>
       <c r="B1901" s="4"/>
     </row>
@@ -19441,7 +19423,7 @@
       <c r="A1903" s="3"/>
       <c r="B1903" s="3"/>
     </row>
-    <row r="1904" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1904" spans="1:2" ht="15" thickBot="1">
       <c r="A1904" s="4"/>
       <c r="B1904" s="4"/>
     </row>
@@ -19453,7 +19435,7 @@
       <c r="A1906" s="3"/>
       <c r="B1906" s="3"/>
     </row>
-    <row r="1907" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1907" spans="1:2" ht="15" thickBot="1">
       <c r="A1907" s="4"/>
       <c r="B1907" s="4"/>
     </row>
@@ -19465,7 +19447,7 @@
       <c r="A1909" s="3"/>
       <c r="B1909" s="3"/>
     </row>
-    <row r="1910" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1910" spans="1:2" ht="15" thickBot="1">
       <c r="A1910" s="4"/>
       <c r="B1910" s="4"/>
     </row>
@@ -19477,7 +19459,7 @@
       <c r="A1912" s="3"/>
       <c r="B1912" s="3"/>
     </row>
-    <row r="1913" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1913" spans="1:2" ht="15" thickBot="1">
       <c r="A1913" s="4"/>
       <c r="B1913" s="4"/>
     </row>
@@ -19489,7 +19471,7 @@
       <c r="A1915" s="3"/>
       <c r="B1915" s="3"/>
     </row>
-    <row r="1916" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1916" spans="1:2" ht="15" thickBot="1">
       <c r="A1916" s="4"/>
       <c r="B1916" s="4"/>
     </row>
@@ -19501,7 +19483,7 @@
       <c r="A1918" s="3"/>
       <c r="B1918" s="3"/>
     </row>
-    <row r="1919" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1919" spans="1:2" ht="15" thickBot="1">
       <c r="A1919" s="4"/>
       <c r="B1919" s="4"/>
     </row>
@@ -19513,7 +19495,7 @@
       <c r="A1921" s="3"/>
       <c r="B1921" s="3"/>
     </row>
-    <row r="1922" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1922" spans="1:2" ht="15" thickBot="1">
       <c r="A1922" s="4"/>
       <c r="B1922" s="4"/>
     </row>
@@ -19525,7 +19507,7 @@
       <c r="A1924" s="3"/>
       <c r="B1924" s="3"/>
     </row>
-    <row r="1925" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1925" spans="1:2" ht="15" thickBot="1">
       <c r="A1925" s="4"/>
       <c r="B1925" s="4"/>
     </row>
@@ -19537,7 +19519,7 @@
       <c r="A1927" s="3"/>
       <c r="B1927" s="3"/>
     </row>
-    <row r="1928" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1928" spans="1:2" ht="15" thickBot="1">
       <c r="A1928" s="4"/>
       <c r="B1928" s="4"/>
     </row>
@@ -19549,7 +19531,7 @@
       <c r="A1930" s="3"/>
       <c r="B1930" s="3"/>
     </row>
-    <row r="1931" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1931" spans="1:2" ht="15" thickBot="1">
       <c r="A1931" s="4"/>
       <c r="B1931" s="4"/>
     </row>
@@ -19561,7 +19543,7 @@
       <c r="A1933" s="3"/>
       <c r="B1933" s="3"/>
     </row>
-    <row r="1934" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1934" spans="1:2" ht="15" thickBot="1">
       <c r="A1934" s="4"/>
       <c r="B1934" s="4"/>
     </row>
@@ -19573,7 +19555,7 @@
       <c r="A1936" s="3"/>
       <c r="B1936" s="3"/>
     </row>
-    <row r="1937" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1937" spans="1:2" ht="15" thickBot="1">
       <c r="A1937" s="4"/>
       <c r="B1937" s="4"/>
     </row>
@@ -19585,7 +19567,7 @@
       <c r="A1939" s="3"/>
       <c r="B1939" s="3"/>
     </row>
-    <row r="1940" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1940" spans="1:2" ht="15" thickBot="1">
       <c r="A1940" s="4"/>
       <c r="B1940" s="4"/>
     </row>
@@ -19597,7 +19579,7 @@
       <c r="A1942" s="3"/>
       <c r="B1942" s="3"/>
     </row>
-    <row r="1943" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1943" spans="1:2" ht="15" thickBot="1">
       <c r="A1943" s="4"/>
       <c r="B1943" s="4"/>
     </row>
@@ -19609,7 +19591,7 @@
       <c r="A1945" s="3"/>
       <c r="B1945" s="3"/>
     </row>
-    <row r="1946" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1946" spans="1:2" ht="15" thickBot="1">
       <c r="A1946" s="4"/>
       <c r="B1946" s="4"/>
     </row>
@@ -19621,7 +19603,7 @@
       <c r="A1948" s="3"/>
       <c r="B1948" s="3"/>
     </row>
-    <row r="1949" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1949" spans="1:2" ht="15" thickBot="1">
       <c r="A1949" s="4"/>
       <c r="B1949" s="4"/>
     </row>
@@ -19633,7 +19615,7 @@
       <c r="A1951" s="3"/>
       <c r="B1951" s="3"/>
     </row>
-    <row r="1952" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1952" spans="1:2" ht="15" thickBot="1">
       <c r="A1952" s="4"/>
       <c r="B1952" s="4"/>
     </row>
@@ -19645,7 +19627,7 @@
       <c r="A1954" s="3"/>
       <c r="B1954" s="3"/>
     </row>
-    <row r="1955" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1955" spans="1:2" ht="15" thickBot="1">
       <c r="A1955" s="4"/>
       <c r="B1955" s="4"/>
     </row>
@@ -19657,7 +19639,7 @@
       <c r="A1957" s="3"/>
       <c r="B1957" s="3"/>
     </row>
-    <row r="1958" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1958" spans="1:2" ht="15" thickBot="1">
       <c r="A1958" s="4"/>
       <c r="B1958" s="4"/>
     </row>
@@ -19669,7 +19651,7 @@
       <c r="A1960" s="3"/>
       <c r="B1960" s="3"/>
     </row>
-    <row r="1961" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1961" spans="1:2" ht="15" thickBot="1">
       <c r="A1961" s="4"/>
       <c r="B1961" s="4"/>
     </row>
@@ -19681,7 +19663,7 @@
       <c r="A1963" s="3"/>
       <c r="B1963" s="3"/>
     </row>
-    <row r="1964" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1964" spans="1:2" ht="15" thickBot="1">
       <c r="A1964" s="4"/>
       <c r="B1964" s="4"/>
     </row>
@@ -19693,7 +19675,7 @@
       <c r="A1966" s="3"/>
       <c r="B1966" s="3"/>
     </row>
-    <row r="1967" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1967" spans="1:2" ht="15" thickBot="1">
       <c r="A1967" s="4"/>
       <c r="B1967" s="4"/>
     </row>
@@ -19705,7 +19687,7 @@
       <c r="A1969" s="3"/>
       <c r="B1969" s="3"/>
     </row>
-    <row r="1970" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1970" spans="1:2" ht="15" thickBot="1">
       <c r="A1970" s="4"/>
       <c r="B1970" s="4"/>
     </row>
@@ -19717,7 +19699,7 @@
       <c r="A1972" s="3"/>
       <c r="B1972" s="3"/>
     </row>
-    <row r="1973" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1973" spans="1:2" ht="15" thickBot="1">
       <c r="A1973" s="4"/>
       <c r="B1973" s="4"/>
     </row>
@@ -19729,7 +19711,7 @@
       <c r="A1975" s="3"/>
       <c r="B1975" s="3"/>
     </row>
-    <row r="1976" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1976" spans="1:2" ht="15" thickBot="1">
       <c r="A1976" s="4"/>
       <c r="B1976" s="4"/>
     </row>
@@ -19741,7 +19723,7 @@
       <c r="A1978" s="3"/>
       <c r="B1978" s="3"/>
     </row>
-    <row r="1979" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1979" spans="1:2" ht="15" thickBot="1">
       <c r="A1979" s="4"/>
       <c r="B1979" s="4"/>
     </row>
@@ -19753,7 +19735,7 @@
       <c r="A1981" s="3"/>
       <c r="B1981" s="3"/>
     </row>
-    <row r="1982" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1982" spans="1:2" ht="15" thickBot="1">
       <c r="A1982" s="4"/>
       <c r="B1982" s="4"/>
     </row>
@@ -19765,7 +19747,7 @@
       <c r="A1984" s="3"/>
       <c r="B1984" s="3"/>
     </row>
-    <row r="1985" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1985" spans="1:2" ht="15" thickBot="1">
       <c r="A1985" s="4"/>
       <c r="B1985" s="4"/>
     </row>
@@ -19777,7 +19759,7 @@
       <c r="A1987" s="3"/>
       <c r="B1987" s="3"/>
     </row>
-    <row r="1988" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1988" spans="1:2" ht="15" thickBot="1">
       <c r="A1988" s="4"/>
       <c r="B1988" s="4"/>
     </row>
@@ -19789,7 +19771,7 @@
       <c r="A1990" s="3"/>
       <c r="B1990" s="3"/>
     </row>
-    <row r="1991" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1991" spans="1:2" ht="15" thickBot="1">
       <c r="A1991" s="4"/>
       <c r="B1991" s="4"/>
     </row>
@@ -19801,7 +19783,7 @@
       <c r="A1993" s="3"/>
       <c r="B1993" s="3"/>
     </row>
-    <row r="1994" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1994" spans="1:2" ht="15" thickBot="1">
       <c r="A1994" s="4"/>
       <c r="B1994" s="4"/>
     </row>
@@ -19813,7 +19795,7 @@
       <c r="A1996" s="3"/>
       <c r="B1996" s="3"/>
     </row>
-    <row r="1997" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1997" spans="1:2" ht="15" thickBot="1">
       <c r="A1997" s="4"/>
       <c r="B1997" s="4"/>
     </row>
@@ -19825,7 +19807,7 @@
       <c r="A1999" s="3"/>
       <c r="B1999" s="3"/>
     </row>
-    <row r="2000" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2000" spans="1:2" ht="15" thickBot="1">
       <c r="A2000" s="4"/>
       <c r="B2000" s="4"/>
     </row>
@@ -19837,7 +19819,7 @@
       <c r="A2002" s="3"/>
       <c r="B2002" s="3"/>
     </row>
-    <row r="2003" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2003" spans="1:2" ht="15" thickBot="1">
       <c r="A2003" s="4"/>
       <c r="B2003" s="4"/>
     </row>
@@ -19849,7 +19831,7 @@
       <c r="A2005" s="3"/>
       <c r="B2005" s="3"/>
     </row>
-    <row r="2006" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2006" spans="1:2" ht="15" thickBot="1">
       <c r="A2006" s="4"/>
       <c r="B2006" s="4"/>
     </row>
@@ -19861,7 +19843,7 @@
       <c r="A2008" s="3"/>
       <c r="B2008" s="3"/>
     </row>
-    <row r="2009" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2009" spans="1:2" ht="15" thickBot="1">
       <c r="A2009" s="4"/>
       <c r="B2009" s="4"/>
     </row>
@@ -19873,7 +19855,7 @@
       <c r="A2011" s="3"/>
       <c r="B2011" s="3"/>
     </row>
-    <row r="2012" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2012" spans="1:2" ht="15" thickBot="1">
       <c r="A2012" s="4"/>
       <c r="B2012" s="4"/>
     </row>
@@ -19885,7 +19867,7 @@
       <c r="A2014" s="3"/>
       <c r="B2014" s="3"/>
     </row>
-    <row r="2015" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2015" spans="1:2" ht="15" thickBot="1">
       <c r="A2015" s="4"/>
       <c r="B2015" s="4"/>
     </row>
@@ -19897,7 +19879,7 @@
       <c r="A2017" s="3"/>
       <c r="B2017" s="3"/>
     </row>
-    <row r="2018" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2018" spans="1:2" ht="15" thickBot="1">
       <c r="A2018" s="4"/>
       <c r="B2018" s="4"/>
     </row>
@@ -19909,7 +19891,7 @@
       <c r="A2020" s="3"/>
       <c r="B2020" s="3"/>
     </row>
-    <row r="2021" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2021" spans="1:2" ht="15" thickBot="1">
       <c r="A2021" s="4"/>
       <c r="B2021" s="4"/>
     </row>
@@ -19921,7 +19903,7 @@
       <c r="A2023" s="3"/>
       <c r="B2023" s="3"/>
     </row>
-    <row r="2024" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2024" spans="1:2" ht="15" thickBot="1">
       <c r="A2024" s="4"/>
       <c r="B2024" s="4"/>
     </row>
@@ -19933,7 +19915,7 @@
       <c r="A2026" s="3"/>
       <c r="B2026" s="3"/>
     </row>
-    <row r="2027" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2027" spans="1:2" ht="15" thickBot="1">
       <c r="A2027" s="4"/>
       <c r="B2027" s="4"/>
     </row>
@@ -19945,7 +19927,7 @@
       <c r="A2029" s="3"/>
       <c r="B2029" s="3"/>
     </row>
-    <row r="2030" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2030" spans="1:2" ht="15" thickBot="1">
       <c r="A2030" s="4"/>
       <c r="B2030" s="4"/>
     </row>
@@ -19957,7 +19939,7 @@
       <c r="A2032" s="3"/>
       <c r="B2032" s="3"/>
     </row>
-    <row r="2033" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2033" spans="1:2" ht="15" thickBot="1">
       <c r="A2033" s="4"/>
       <c r="B2033" s="4"/>
     </row>
@@ -19969,7 +19951,7 @@
       <c r="A2035" s="3"/>
       <c r="B2035" s="3"/>
     </row>
-    <row r="2036" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2036" spans="1:2" ht="15" thickBot="1">
       <c r="A2036" s="4"/>
       <c r="B2036" s="4"/>
     </row>
@@ -19981,7 +19963,7 @@
       <c r="A2038" s="3"/>
       <c r="B2038" s="3"/>
     </row>
-    <row r="2039" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2039" spans="1:2" ht="15" thickBot="1">
       <c r="A2039" s="4"/>
       <c r="B2039" s="4"/>
     </row>
@@ -19993,7 +19975,7 @@
       <c r="A2041" s="3"/>
       <c r="B2041" s="3"/>
     </row>
-    <row r="2042" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2042" spans="1:2" ht="15" thickBot="1">
       <c r="A2042" s="4"/>
       <c r="B2042" s="4"/>
     </row>
@@ -20005,7 +19987,7 @@
       <c r="A2044" s="3"/>
       <c r="B2044" s="3"/>
     </row>
-    <row r="2045" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2045" spans="1:2" ht="15" thickBot="1">
       <c r="A2045" s="4"/>
       <c r="B2045" s="4"/>
     </row>
@@ -20017,7 +19999,7 @@
       <c r="A2047" s="3"/>
       <c r="B2047" s="3"/>
     </row>
-    <row r="2048" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2048" spans="1:2" ht="15" thickBot="1">
       <c r="A2048" s="4"/>
       <c r="B2048" s="4"/>
     </row>
@@ -20029,7 +20011,7 @@
       <c r="A2050" s="3"/>
       <c r="B2050" s="3"/>
     </row>
-    <row r="2051" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2051" spans="1:2" ht="15" thickBot="1">
       <c r="A2051" s="4"/>
       <c r="B2051" s="4"/>
     </row>
@@ -20041,7 +20023,7 @@
       <c r="A2053" s="3"/>
       <c r="B2053" s="3"/>
     </row>
-    <row r="2054" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2054" spans="1:2" ht="15" thickBot="1">
       <c r="A2054" s="4"/>
       <c r="B2054" s="4"/>
     </row>
@@ -20053,7 +20035,7 @@
       <c r="A2056" s="3"/>
       <c r="B2056" s="3"/>
     </row>
-    <row r="2057" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2057" spans="1:2" ht="15" thickBot="1">
       <c r="A2057" s="4"/>
       <c r="B2057" s="4"/>
     </row>
@@ -20065,7 +20047,7 @@
       <c r="A2059" s="3"/>
       <c r="B2059" s="3"/>
     </row>
-    <row r="2060" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2060" spans="1:2" ht="15" thickBot="1">
       <c r="A2060" s="4"/>
       <c r="B2060" s="4"/>
     </row>
@@ -20077,7 +20059,7 @@
       <c r="A2062" s="3"/>
       <c r="B2062" s="3"/>
     </row>
-    <row r="2063" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2063" spans="1:2" ht="15" thickBot="1">
       <c r="A2063" s="4"/>
       <c r="B2063" s="4"/>
     </row>
@@ -20089,7 +20071,7 @@
       <c r="A2065" s="3"/>
       <c r="B2065" s="3"/>
     </row>
-    <row r="2066" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2066" spans="1:2" ht="15" thickBot="1">
       <c r="A2066" s="4"/>
       <c r="B2066" s="4"/>
     </row>
@@ -20101,7 +20083,7 @@
       <c r="A2068" s="3"/>
       <c r="B2068" s="3"/>
     </row>
-    <row r="2069" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2069" spans="1:2" ht="15" thickBot="1">
       <c r="A2069" s="4"/>
       <c r="B2069" s="4"/>
     </row>
@@ -20113,7 +20095,7 @@
       <c r="A2071" s="3"/>
       <c r="B2071" s="3"/>
     </row>
-    <row r="2072" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2072" spans="1:2" ht="15" thickBot="1">
       <c r="A2072" s="4"/>
       <c r="B2072" s="4"/>
     </row>
@@ -20125,7 +20107,7 @@
       <c r="A2074" s="3"/>
       <c r="B2074" s="3"/>
     </row>
-    <row r="2075" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2075" spans="1:2" ht="15" thickBot="1">
       <c r="A2075" s="4"/>
       <c r="B2075" s="4"/>
     </row>
@@ -20137,7 +20119,7 @@
       <c r="A2077" s="3"/>
       <c r="B2077" s="3"/>
     </row>
-    <row r="2078" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2078" spans="1:2" ht="15" thickBot="1">
       <c r="A2078" s="4"/>
       <c r="B2078" s="4"/>
     </row>
@@ -20149,7 +20131,7 @@
       <c r="A2080" s="3"/>
       <c r="B2080" s="3"/>
     </row>
-    <row r="2081" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2081" spans="1:2" ht="15" thickBot="1">
       <c r="A2081" s="4"/>
       <c r="B2081" s="4"/>
     </row>
@@ -20161,7 +20143,7 @@
       <c r="A2083" s="3"/>
       <c r="B2083" s="3"/>
     </row>
-    <row r="2084" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2084" spans="1:2" ht="15" thickBot="1">
       <c r="A2084" s="4"/>
       <c r="B2084" s="4"/>
     </row>
@@ -20173,7 +20155,7 @@
       <c r="A2086" s="3"/>
       <c r="B2086" s="3"/>
     </row>
-    <row r="2087" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2087" spans="1:2" ht="15" thickBot="1">
       <c r="A2087" s="4"/>
       <c r="B2087" s="4"/>
     </row>
@@ -20185,7 +20167,7 @@
       <c r="A2089" s="3"/>
       <c r="B2089" s="3"/>
     </row>
-    <row r="2090" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2090" spans="1:2" ht="15" thickBot="1">
       <c r="A2090" s="4"/>
       <c r="B2090" s="4"/>
     </row>
@@ -20197,7 +20179,7 @@
       <c r="A2092" s="3"/>
       <c r="B2092" s="3"/>
     </row>
-    <row r="2093" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2093" spans="1:2" ht="15" thickBot="1">
       <c r="A2093" s="4"/>
       <c r="B2093" s="4"/>
     </row>
@@ -20209,7 +20191,7 @@
       <c r="A2095" s="3"/>
       <c r="B2095" s="3"/>
     </row>
-    <row r="2096" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2096" spans="1:2" ht="15" thickBot="1">
       <c r="A2096" s="4"/>
       <c r="B2096" s="4"/>
     </row>
@@ -20221,7 +20203,7 @@
       <c r="A2098" s="3"/>
       <c r="B2098" s="3"/>
     </row>
-    <row r="2099" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2099" spans="1:2" ht="15" thickBot="1">
       <c r="A2099" s="4"/>
       <c r="B2099" s="4"/>
     </row>
@@ -20233,7 +20215,7 @@
       <c r="A2101" s="3"/>
       <c r="B2101" s="3"/>
     </row>
-    <row r="2102" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2102" spans="1:2" ht="15" thickBot="1">
       <c r="A2102" s="4"/>
       <c r="B2102" s="4"/>
     </row>
@@ -20245,7 +20227,7 @@
       <c r="A2104" s="3"/>
       <c r="B2104" s="3"/>
     </row>
-    <row r="2105" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2105" spans="1:2" ht="15" thickBot="1">
       <c r="A2105" s="4"/>
       <c r="B2105" s="4"/>
     </row>
@@ -20257,7 +20239,7 @@
       <c r="A2107" s="3"/>
       <c r="B2107" s="3"/>
     </row>
-    <row r="2108" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2108" spans="1:2" ht="15" thickBot="1">
       <c r="A2108" s="4"/>
       <c r="B2108" s="4"/>
     </row>
@@ -20269,7 +20251,7 @@
       <c r="A2110" s="3"/>
       <c r="B2110" s="3"/>
     </row>
-    <row r="2111" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2111" spans="1:2" ht="15" thickBot="1">
       <c r="A2111" s="4"/>
       <c r="B2111" s="4"/>
     </row>
@@ -20281,7 +20263,7 @@
       <c r="A2113" s="3"/>
       <c r="B2113" s="3"/>
     </row>
-    <row r="2114" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2114" spans="1:2" ht="15" thickBot="1">
       <c r="A2114" s="4"/>
       <c r="B2114" s="4"/>
     </row>
@@ -20293,7 +20275,7 @@
       <c r="A2116" s="3"/>
       <c r="B2116" s="3"/>
     </row>
-    <row r="2117" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2117" spans="1:2" ht="15" thickBot="1">
       <c r="A2117" s="4"/>
       <c r="B2117" s="4"/>
     </row>
@@ -20305,11 +20287,11 @@
       <c r="A2119" s="3"/>
       <c r="B2119" s="3"/>
     </row>
-    <row r="2120" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2120" spans="1:2" ht="15" thickBot="1">
       <c r="A2120" s="4"/>
       <c r="B2120" s="4"/>
     </row>
-    <row r="2121" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2121" spans="1:2" ht="15" thickBot="1">
       <c r="A2121" s="5"/>
       <c r="B2121" s="5"/>
     </row>
